--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
@@ -8333,7 +8333,7 @@
     <t>Add</t>
   </si>
   <si>
-    <t>Tilføj</t>
+    <t>Toevoegen</t>
   </si>
   <si>
     <t>Current layout</t>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5831">
   <si>
     <t>translation_group</t>
   </si>
@@ -10076,10 +10076,10 @@
     <t>SEO-instellingen</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
-  </si>
-  <si>
-    <t>Vul de velden in voor maximale resultaten bij het vinden van uw website in _x005F_x0003_zoekmachines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
+  </si>
+  <si>
+    <t>Vul de velden in voor maximale resultaten bij het vinden van uw website in zoekmachines.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -16934,6 +16934,592 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Welkom bij Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Gebruik Microweber om uw website, online winkel of blog te bouwen.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Creëer en bewerk content, verkoop online, beheer bestellingen en klanten.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>U gebruikt deze sjabloon.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>De wijziging heeft alleen invloed op de huidige pagina.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Sta meerdere sjablonen toe</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Als u meerdere sjablonen toestaat, kunt u verschillende sjablonen gebruiken wanneer u nieuwe pagina's maakt.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Systeeminstellingen voor e-mailwebsite</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Bezorg berichten met betrekking tot nieuwe registratie, wachtwoordresets en andere systeemfunctionaliteiten.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Van E-mailadres</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Uw websitenaam</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Algemene instellingen van de e-mailprovider</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Stel uw e-mailprovider in.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>De algemene e-mailprovider bezorgt alle berichten die betrekking hebben op de website. Inclusief systeemberichten en contactformulierberichten.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo van de website</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Kies een logo voor uw website.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Logo uploaden</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Standaardtaal wijzigen ...</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Cache wissen..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installeer de meertalige module</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Geregistreerde gebruikers kunnen automatisch een automatische e-mail van u ontvangen. Bekijk de instellingen en plaats uw berichten.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Stuur een e-mail over nieuwe gebruikersregistratie naar admin-gebruikers</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Wilt u dat beheerders een e-mail ontvangen wanneer een nieuwe gebruiker is geregistreerd?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber is een gratis open source websitebouwer en CMS met slepen en neerzetten. Het is onder MIT-licentie en we gebruiken het Laravel PHP-framework</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Een schuifregelaar</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Verzending naar adres</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Ophalen van adres</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-mailintegraties</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Je hebt geen systeem e-mail en smtp setup.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Stel hier uw systeeminstellingen in.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Algemene instellingen voor contactformulier</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Opties voor het verzenden van e-mail</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Wereldwijde afzender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Gebruik aangepaste afzenderinstellingen</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Gebruik aangepaste afzenderinstellingen voor de algemene contactformulieren.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Standaard gebruiken we de e-mailinstellingen van het websitesysteem.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Hier kunt u de e-mailinstellingen van het systeem wijzigen.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Wereldwijde ontvangers</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Stuur contactformuliergegevens naar wereldwijde ontvangers wanneer deze worden ingediend</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Naar e-mailadressen</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>E-mailadres van de ontvangers gescheiden door coma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Neem contact op met uw hostingprovider om de PHP SOAP-extensie in te schakelen.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementen</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 maanden geleden</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Logo verwijderen</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Verwijder favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Op maat</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Producten V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Tijdlijn</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Inhoudsversies</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Standaard lay-outs en elementen</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Pijlenlijst</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Gecontroleerde lijst</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Achtergrondtekst</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titel met tekst</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Pictogram met tekst</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Twee tekstkolommen</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Twee tekstkolommen met pictogram en titel</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Afbeelding met titel en tekst</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Tekst met afbeelding en titel</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Schakel opmerkingen in</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha-instellingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stel uw captcha-voorkeuren in vanuit </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Huidige instellingen voor contactformulier</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Naam contactformulier</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Wat is de naam van dit contactformulier?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Ontvangers</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Stuur contactformuliergegevens naar aangepaste ontvangers wanneer deze worden ingediend</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gebruik aangepaste ontvangersinstellingen voor het huidige contactformulier.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Standaard gebruiken we de algemene instellingen van het contactformulier.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>U kunt hier de algemene instellingen van het contactformulier wijzigen.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Automatisch antwoordbericht aan gebruiker</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Schakel automatisch antwoordbericht voor gebruiker in</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Sta gebruikers toe om "Bedankt-e-mails na inschrijving" te ontvangen.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Onderwerp automatisch reageren</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Automatische beantwoording van e-mail die naar de gebruiker wordt teruggestuurd</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Aangepaste afzender automatisch beantwoorden</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gebruik aangepaste afzenderinstellingen voor het huidige contactformulier.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Automatisch reageren vanaf e-mailadres</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Automatisch reageren op naam</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Antwoord automatisch op e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Wanneer de gebruiker het automatische antwoordbericht ontvangt, kan hij reageren om een e-mail te beantwoorden.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>E-mailbijlagen automatisch beantwoorden</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Als u og-afbeeldingen wilt bijvoegen, moet u deze uploaden naar de galerij via 'Media toevoegen'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Je hebt nog geen posts</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Maak nu je eerste bericht.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Maak een bericht</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Productbeschrijvingen schrijven die verkopen
+                                                    Een van de beste dingen die u kunt doen om uw winkel succesvol te maken, is wat tijd investeren in het schrijven van geweldige productbeschrijvingen. U wilt gedetailleerde maar beknopte informatie verstrekken die potentiële klanten zal verleiden om te kopen.
+                                                    Denk als een consument
+                                                    Denk na over wat u als consument zou willen weten en neem die kenmerken vervolgens op in uw beschrijving. Voor kleding: materialen en pasvorm. Voor voedsel: ingrediënten en hoe het werd bereid. Opsommingstekens zijn je vrienden bij het vermelden van
+                                                   objecten - probeer
+                                                            elk te beperken tot 5-8 woorden.</t>
   </si>
 </sst>
 </file>
@@ -17272,7 +17858,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67580,6 +68166,1757 @@
         <v>3591</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5639</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5640</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5641</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5642</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5643</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5644</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5646</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5647</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5648</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5649</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5650</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5652</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5653</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5654</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5655</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5656</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5657</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5658</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5659</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5660</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5666</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5668</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5669</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5674</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5675</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5677</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5679</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5681</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5703</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5711</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5713</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5717</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4893</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5828</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6127">
   <si>
     <t>translation_group</t>
   </si>
@@ -15274,1609 +15274,1612 @@
     <t>Manage multilanguage</t>
   </si>
   <si>
+    <t>Beheer meertalig</t>
+  </si>
+  <si>
+    <t>Activate Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Meertalige module activeren</t>
+  </si>
+  <si>
+    <t>Choose mail providers to save your contacts information data</t>
+  </si>
+  <si>
+    <t>Kies e-mailproviders om uw contactgegevens op te slaan</t>
+  </si>
+  <si>
+    <t>Send the autorespond emails to</t>
+  </si>
+  <si>
+    <t>Stuur de autorespond-e-mails naar</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Optie</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Controleren</t>
+  </si>
+  <si>
+    <t>Blog 1</t>
+  </si>
+  <si>
+    <t>Blog 2</t>
+  </si>
+  <si>
+    <t>Blog 3</t>
+  </si>
+  <si>
+    <t>Blog 4</t>
+  </si>
+  <si>
+    <t>Blog 5</t>
+  </si>
+  <si>
+    <t>Blog 6</t>
+  </si>
+  <si>
+    <t>Blog 7</t>
+  </si>
+  <si>
+    <t>Blog 8</t>
+  </si>
+  <si>
+    <t>Blog 9</t>
+  </si>
+  <si>
+    <t>Blog 10</t>
+  </si>
+  <si>
+    <t>Blog 11</t>
+  </si>
+  <si>
+    <t>Blog 12</t>
+  </si>
+  <si>
+    <t>Blog 13</t>
+  </si>
+  <si>
+    <t>Call to action 1</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 1</t>
+  </si>
+  <si>
+    <t>Call to action 2</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 2</t>
+  </si>
+  <si>
+    <t>Call to action 3</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 3</t>
+  </si>
+  <si>
+    <t>Call to action 4</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 4</t>
+  </si>
+  <si>
+    <t>Call to action 5</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 5</t>
+  </si>
+  <si>
+    <t>Call to action 6</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 6</t>
+  </si>
+  <si>
+    <t>Call to action 7</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 7</t>
+  </si>
+  <si>
+    <t>Call to action 8</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 8</t>
+  </si>
+  <si>
+    <t>Call to action 9</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 9</t>
+  </si>
+  <si>
+    <t>Call to action 10</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 10</t>
+  </si>
+  <si>
+    <t>Call to action 11</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 11</t>
+  </si>
+  <si>
+    <t>Call to action 12</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 12</t>
+  </si>
+  <si>
+    <t>Call to action 13</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 13</t>
+  </si>
+  <si>
+    <t>Call to action 14</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 14</t>
+  </si>
+  <si>
+    <t>Call to action 15</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 15</t>
+  </si>
+  <si>
+    <t>Call to action 16</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 16</t>
+  </si>
+  <si>
+    <t>Call to action 17</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 17</t>
+  </si>
+  <si>
+    <t>Call to action 18</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 18</t>
+  </si>
+  <si>
+    <t>Call to action 19</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 19</t>
+  </si>
+  <si>
+    <t>Call to action 20</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 20</t>
+  </si>
+  <si>
+    <t>Call to action 21</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 21</t>
+  </si>
+  <si>
+    <t>Call to action 22</t>
+  </si>
+  <si>
+    <t>Oproep tot actie 22</t>
+  </si>
+  <si>
+    <t>Contacts 1</t>
+  </si>
+  <si>
+    <t>Contacten 1</t>
+  </si>
+  <si>
+    <t>Contacts 2</t>
+  </si>
+  <si>
+    <t>Contacten 2</t>
+  </si>
+  <si>
+    <t>Contacts 3</t>
+  </si>
+  <si>
+    <t>Contacten 3</t>
+  </si>
+  <si>
+    <t>Contacts 4</t>
+  </si>
+  <si>
+    <t>Contacten 4</t>
+  </si>
+  <si>
+    <t>Contacts 5</t>
+  </si>
+  <si>
+    <t>Contacten 5</t>
+  </si>
+  <si>
+    <t>Contacts 6</t>
+  </si>
+  <si>
+    <t>Contacten 6</t>
+  </si>
+  <si>
+    <t>Contacts 7</t>
+  </si>
+  <si>
+    <t>Contacten 7</t>
+  </si>
+  <si>
+    <t>Contacts 8</t>
+  </si>
+  <si>
+    <t>Contacten 8</t>
+  </si>
+  <si>
+    <t>Contacts 9</t>
+  </si>
+  <si>
+    <t>Contacten 9</t>
+  </si>
+  <si>
+    <t>Contacts 10</t>
+  </si>
+  <si>
+    <t>Contacten 10</t>
+  </si>
+  <si>
+    <t>Contacts 11</t>
+  </si>
+  <si>
+    <t>Contacten 11</t>
+  </si>
+  <si>
+    <t>Content 1</t>
+  </si>
+  <si>
+    <t>Inhoud 1</t>
+  </si>
+  <si>
+    <t>Content 2</t>
+  </si>
+  <si>
+    <t>Inhoud 2</t>
+  </si>
+  <si>
+    <t>Content 3</t>
+  </si>
+  <si>
+    <t>Inhoud 3</t>
+  </si>
+  <si>
+    <t>Content 4</t>
+  </si>
+  <si>
+    <t>Inhoud 4</t>
+  </si>
+  <si>
+    <t>Content 5</t>
+  </si>
+  <si>
+    <t>Inhoud 5</t>
+  </si>
+  <si>
+    <t>Content 6</t>
+  </si>
+  <si>
+    <t>Inhoud 6</t>
+  </si>
+  <si>
+    <t>Content 7</t>
+  </si>
+  <si>
+    <t>Inhoud 7</t>
+  </si>
+  <si>
+    <t>Content 8</t>
+  </si>
+  <si>
+    <t>Inhoud 8</t>
+  </si>
+  <si>
+    <t>Content 9</t>
+  </si>
+  <si>
+    <t>Inhoud 9</t>
+  </si>
+  <si>
+    <t>Content 10</t>
+  </si>
+  <si>
+    <t>Inhoud 10</t>
+  </si>
+  <si>
+    <t>Content 11</t>
+  </si>
+  <si>
+    <t>Inhoud 11</t>
+  </si>
+  <si>
+    <t>Content 12</t>
+  </si>
+  <si>
+    <t>Inhoud 12</t>
+  </si>
+  <si>
+    <t>Content 13</t>
+  </si>
+  <si>
+    <t>Inhoud 13</t>
+  </si>
+  <si>
+    <t>Content 14</t>
+  </si>
+  <si>
+    <t>Inhoud 14</t>
+  </si>
+  <si>
+    <t>Content 15</t>
+  </si>
+  <si>
+    <t>Inhoud 15</t>
+  </si>
+  <si>
+    <t>Content 16</t>
+  </si>
+  <si>
+    <t>Inhoud 16</t>
+  </si>
+  <si>
+    <t>Content 17</t>
+  </si>
+  <si>
+    <t>Inhoud 17</t>
+  </si>
+  <si>
+    <t>Content 18</t>
+  </si>
+  <si>
+    <t>Inhoud 18</t>
+  </si>
+  <si>
+    <t>Content 19</t>
+  </si>
+  <si>
+    <t>Inhoud 19</t>
+  </si>
+  <si>
+    <t>Content 20</t>
+  </si>
+  <si>
+    <t>Inhoud 20</t>
+  </si>
+  <si>
+    <t>Content 21</t>
+  </si>
+  <si>
+    <t>Inhoud 21</t>
+  </si>
+  <si>
+    <t>Content 22</t>
+  </si>
+  <si>
+    <t>Inhoud 22</t>
+  </si>
+  <si>
+    <t>Content 23</t>
+  </si>
+  <si>
+    <t>Inhoud 23</t>
+  </si>
+  <si>
+    <t>Content 24</t>
+  </si>
+  <si>
+    <t>Inhoud 24</t>
+  </si>
+  <si>
+    <t>Content 25</t>
+  </si>
+  <si>
+    <t>Inhoud 25</t>
+  </si>
+  <si>
+    <t>Content 26</t>
+  </si>
+  <si>
+    <t>Inhoud 26</t>
+  </si>
+  <si>
+    <t>Content 27</t>
+  </si>
+  <si>
+    <t>Inhoud 27</t>
+  </si>
+  <si>
+    <t>Content 28</t>
+  </si>
+  <si>
+    <t>Inhoud 28</t>
+  </si>
+  <si>
+    <t>Content 29</t>
+  </si>
+  <si>
+    <t>Inhoud 29</t>
+  </si>
+  <si>
+    <t>Content 30</t>
+  </si>
+  <si>
+    <t>Inhoud 30</t>
+  </si>
+  <si>
+    <t>Content 31</t>
+  </si>
+  <si>
+    <t>Inhoud 31</t>
+  </si>
+  <si>
+    <t>Content 32</t>
+  </si>
+  <si>
+    <t>Inhoud 32</t>
+  </si>
+  <si>
+    <t>Content 33</t>
+  </si>
+  <si>
+    <t>Inhoud 33</t>
+  </si>
+  <si>
+    <t>Content 34</t>
+  </si>
+  <si>
+    <t>Inhoud 34</t>
+  </si>
+  <si>
+    <t>Content 35</t>
+  </si>
+  <si>
+    <t>Inhoud 35</t>
+  </si>
+  <si>
+    <t>Content 36</t>
+  </si>
+  <si>
+    <t>Inhoud 36</t>
+  </si>
+  <si>
+    <t>Content 37</t>
+  </si>
+  <si>
+    <t>Inhoud 37</t>
+  </si>
+  <si>
+    <t>Content 38</t>
+  </si>
+  <si>
+    <t>Inhoud 38</t>
+  </si>
+  <si>
+    <t>Content 39</t>
+  </si>
+  <si>
+    <t>Inhoud 39</t>
+  </si>
+  <si>
+    <t>Content 40</t>
+  </si>
+  <si>
+    <t>Inhoud 40</t>
+  </si>
+  <si>
+    <t>Content 41</t>
+  </si>
+  <si>
+    <t>Inhoud 41</t>
+  </si>
+  <si>
+    <t>Content 42</t>
+  </si>
+  <si>
+    <t>Inhoud 42</t>
+  </si>
+  <si>
+    <t>Content 43</t>
+  </si>
+  <si>
+    <t>Inhoud 43</t>
+  </si>
+  <si>
+    <t>Content 44</t>
+  </si>
+  <si>
+    <t>Inhoud 44</t>
+  </si>
+  <si>
+    <t>Content 45</t>
+  </si>
+  <si>
+    <t>Inhoud 45</t>
+  </si>
+  <si>
+    <t>Content 46</t>
+  </si>
+  <si>
+    <t>Inhoud 46</t>
+  </si>
+  <si>
+    <t>Content 47</t>
+  </si>
+  <si>
+    <t>Inhoud 47</t>
+  </si>
+  <si>
+    <t>Content 48</t>
+  </si>
+  <si>
+    <t>Inhoud 48</t>
+  </si>
+  <si>
+    <t>Content 49</t>
+  </si>
+  <si>
+    <t>Inhoud 49</t>
+  </si>
+  <si>
+    <t>Content 50</t>
+  </si>
+  <si>
+    <t>Inhoud 50</t>
+  </si>
+  <si>
+    <t>Content 51</t>
+  </si>
+  <si>
+    <t>Inhoud 51</t>
+  </si>
+  <si>
+    <t>Content 52</t>
+  </si>
+  <si>
+    <t>Inhoud 52</t>
+  </si>
+  <si>
+    <t>Content 53</t>
+  </si>
+  <si>
+    <t>Inhoud 53</t>
+  </si>
+  <si>
+    <t>Content 54</t>
+  </si>
+  <si>
+    <t>Inhoud 54</t>
+  </si>
+  <si>
+    <t>Content 55</t>
+  </si>
+  <si>
+    <t>Inhoud 55</t>
+  </si>
+  <si>
+    <t>Content 56</t>
+  </si>
+  <si>
+    <t>Inhoud 56</t>
+  </si>
+  <si>
+    <t>Content 57</t>
+  </si>
+  <si>
+    <t>Inhoud 57</t>
+  </si>
+  <si>
+    <t>Content 58</t>
+  </si>
+  <si>
+    <t>Inhoud 58</t>
+  </si>
+  <si>
+    <t>Content 59</t>
+  </si>
+  <si>
+    <t>Inhoud 59</t>
+  </si>
+  <si>
+    <t>Ecommerce 1</t>
+  </si>
+  <si>
+    <t>E-commerce 1</t>
+  </si>
+  <si>
+    <t>Ecommerce 2</t>
+  </si>
+  <si>
+    <t>E-commerce 2</t>
+  </si>
+  <si>
+    <t>Ecommerce 3</t>
+  </si>
+  <si>
+    <t>E-commerce 3</t>
+  </si>
+  <si>
+    <t>Ecommerce 4</t>
+  </si>
+  <si>
+    <t>E-commerce 4</t>
+  </si>
+  <si>
+    <t>Ecommerce 5</t>
+  </si>
+  <si>
+    <t>E-commerce 5</t>
+  </si>
+  <si>
+    <t>Ecommerce 6</t>
+  </si>
+  <si>
+    <t>E-commerce 6</t>
+  </si>
+  <si>
+    <t>Ecommerce 7</t>
+  </si>
+  <si>
+    <t>E-commerce 7</t>
+  </si>
+  <si>
+    <t>Feature 1</t>
+  </si>
+  <si>
+    <t>Eigenschap 1</t>
+  </si>
+  <si>
+    <t>Feature 2</t>
+  </si>
+  <si>
+    <t>Eigenschap 2</t>
+  </si>
+  <si>
+    <t>Feature 3</t>
+  </si>
+  <si>
+    <t>Eigenschap 3</t>
+  </si>
+  <si>
+    <t>Feature 4</t>
+  </si>
+  <si>
+    <t>Eigenschap 4</t>
+  </si>
+  <si>
+    <t>Feature 5</t>
+  </si>
+  <si>
+    <t>Kenmerk 5</t>
+  </si>
+  <si>
+    <t>Feature 6</t>
+  </si>
+  <si>
+    <t>Kenmerk 6</t>
+  </si>
+  <si>
+    <t>Feature 7</t>
+  </si>
+  <si>
+    <t>Kenmerk 7</t>
+  </si>
+  <si>
+    <t>Feature 8</t>
+  </si>
+  <si>
+    <t>Functie 8</t>
+  </si>
+  <si>
+    <t>Feature 9</t>
+  </si>
+  <si>
+    <t>Functie 9</t>
+  </si>
+  <si>
+    <t>Feature 10</t>
+  </si>
+  <si>
+    <t>Functie 10</t>
+  </si>
+  <si>
+    <t>Feature 11</t>
+  </si>
+  <si>
+    <t>Functie 11</t>
+  </si>
+  <si>
+    <t>Feature 12</t>
+  </si>
+  <si>
+    <t>Functie 12</t>
+  </si>
+  <si>
+    <t>Feature 14</t>
+  </si>
+  <si>
+    <t>Functie 14</t>
+  </si>
+  <si>
+    <t>Feature 15</t>
+  </si>
+  <si>
+    <t>Functie 15</t>
+  </si>
+  <si>
+    <t>Feature 16</t>
+  </si>
+  <si>
+    <t>Functie 16</t>
+  </si>
+  <si>
+    <t>Feature 17</t>
+  </si>
+  <si>
+    <t>Functie 17</t>
+  </si>
+  <si>
+    <t>Feature 18</t>
+  </si>
+  <si>
+    <t>Functie 18</t>
+  </si>
+  <si>
+    <t>Feature 19</t>
+  </si>
+  <si>
+    <t>Functie 19</t>
+  </si>
+  <si>
+    <t>Feature 20</t>
+  </si>
+  <si>
+    <t>Functie 20</t>
+  </si>
+  <si>
+    <t>Feature 21</t>
+  </si>
+  <si>
+    <t>Functie 21</t>
+  </si>
+  <si>
+    <t>Feature 22</t>
+  </si>
+  <si>
+    <t>Functie 22</t>
+  </si>
+  <si>
+    <t>Feature 23</t>
+  </si>
+  <si>
+    <t>Functie 23</t>
+  </si>
+  <si>
+    <t>Feature 24</t>
+  </si>
+  <si>
+    <t>Functie 24</t>
+  </si>
+  <si>
+    <t>Feature 25</t>
+  </si>
+  <si>
+    <t>Functie 25</t>
+  </si>
+  <si>
+    <t>Feature 26</t>
+  </si>
+  <si>
+    <t>Functie 26</t>
+  </si>
+  <si>
+    <t>Feature 27</t>
+  </si>
+  <si>
+    <t>Functie 27</t>
+  </si>
+  <si>
+    <t>Feature 28</t>
+  </si>
+  <si>
+    <t>Functie 28</t>
+  </si>
+  <si>
+    <t>Feature 29</t>
+  </si>
+  <si>
+    <t>Functie 29</t>
+  </si>
+  <si>
+    <t>Feature 30</t>
+  </si>
+  <si>
+    <t>Eigenschap 30</t>
+  </si>
+  <si>
+    <t>Feature 31</t>
+  </si>
+  <si>
+    <t>Functie 31</t>
+  </si>
+  <si>
+    <t>Feature 32</t>
+  </si>
+  <si>
+    <t>Eigenschap 32</t>
+  </si>
+  <si>
+    <t>Feature 33</t>
+  </si>
+  <si>
+    <t>Eigenschap 33</t>
+  </si>
+  <si>
+    <t>Feature 34</t>
+  </si>
+  <si>
+    <t>Eigenschap 34</t>
+  </si>
+  <si>
+    <t>Feature 35</t>
+  </si>
+  <si>
+    <t>Eigenschap 35</t>
+  </si>
+  <si>
+    <t>Gallery 1</t>
+  </si>
+  <si>
+    <t>Galerij 1</t>
+  </si>
+  <si>
+    <t>Gallery 2</t>
+  </si>
+  <si>
+    <t>Galerij 2</t>
+  </si>
+  <si>
+    <t>Gallery 3</t>
+  </si>
+  <si>
+    <t>Galerij 3</t>
+  </si>
+  <si>
+    <t>Gallery 4</t>
+  </si>
+  <si>
+    <t>Galerij 4</t>
+  </si>
+  <si>
+    <t>Gallery 5</t>
+  </si>
+  <si>
+    <t>Galerij 5</t>
+  </si>
+  <si>
+    <t>Gallery 6</t>
+  </si>
+  <si>
+    <t>Galerij 6</t>
+  </si>
+  <si>
+    <t>Gallery 7</t>
+  </si>
+  <si>
+    <t>Galerij 7</t>
+  </si>
+  <si>
+    <t>Gallery 8</t>
+  </si>
+  <si>
+    <t>Galerij 8</t>
+  </si>
+  <si>
+    <t>Gallery 9</t>
+  </si>
+  <si>
+    <t>Galerij 9</t>
+  </si>
+  <si>
+    <t>Gallery 10</t>
+  </si>
+  <si>
+    <t>Galerij 10</t>
+  </si>
+  <si>
+    <t>Gallery 11</t>
+  </si>
+  <si>
+    <t>Galerij 11</t>
+  </si>
+  <si>
+    <t>Gallery 12</t>
+  </si>
+  <si>
+    <t>Galerij 12</t>
+  </si>
+  <si>
+    <t>Grid 1</t>
+  </si>
+  <si>
+    <t>Raster 1</t>
+  </si>
+  <si>
+    <t>Grid 2</t>
+  </si>
+  <si>
+    <t>Rooster 2</t>
+  </si>
+  <si>
+    <t>Grid 3</t>
+  </si>
+  <si>
+    <t>Raster 3</t>
+  </si>
+  <si>
+    <t>Grid 4</t>
+  </si>
+  <si>
+    <t>Raster 4</t>
+  </si>
+  <si>
+    <t>Grid 5</t>
+  </si>
+  <si>
+    <t>Raster 5</t>
+  </si>
+  <si>
+    <t>Grid 6</t>
+  </si>
+  <si>
+    <t>Raster 6</t>
+  </si>
+  <si>
+    <t>Grid 7</t>
+  </si>
+  <si>
+    <t>Raster 7</t>
+  </si>
+  <si>
+    <t>Grid 8</t>
+  </si>
+  <si>
+    <t>Raster 8</t>
+  </si>
+  <si>
+    <t>Grid 9</t>
+  </si>
+  <si>
+    <t>Raster 9</t>
+  </si>
+  <si>
+    <t>Grid 10</t>
+  </si>
+  <si>
+    <t>Raster 10</t>
+  </si>
+  <si>
+    <t>Grid 11</t>
+  </si>
+  <si>
+    <t>Raster 11</t>
+  </si>
+  <si>
+    <t>Grid 12</t>
+  </si>
+  <si>
+    <t>Raster 12</t>
+  </si>
+  <si>
+    <t>Grid 13</t>
+  </si>
+  <si>
+    <t>Raster 13</t>
+  </si>
+  <si>
+    <t>Grid 14</t>
+  </si>
+  <si>
+    <t>Raster 14</t>
+  </si>
+  <si>
+    <t>Header 1</t>
+  </si>
+  <si>
+    <t>Koptekst 1</t>
+  </si>
+  <si>
+    <t>Header 2</t>
+  </si>
+  <si>
+    <t>Koptekst 2</t>
+  </si>
+  <si>
+    <t>Header 3</t>
+  </si>
+  <si>
+    <t>Koptekst 3</t>
+  </si>
+  <si>
+    <t>Header 4</t>
+  </si>
+  <si>
+    <t>Koptekst 4</t>
+  </si>
+  <si>
+    <t>Header 5</t>
+  </si>
+  <si>
+    <t>Koptekst 5</t>
+  </si>
+  <si>
+    <t>Header 6</t>
+  </si>
+  <si>
+    <t>Koptekst 6</t>
+  </si>
+  <si>
+    <t>Header 7</t>
+  </si>
+  <si>
+    <t>Koptekst 7</t>
+  </si>
+  <si>
+    <t>Header 8</t>
+  </si>
+  <si>
+    <t>Koptekst 8</t>
+  </si>
+  <si>
+    <t>Header 9</t>
+  </si>
+  <si>
+    <t>Koptekst 9</t>
+  </si>
+  <si>
+    <t>Header 11</t>
+  </si>
+  <si>
+    <t>Kop 11</t>
+  </si>
+  <si>
+    <t>Header 12</t>
+  </si>
+  <si>
+    <t>Koptekst 12</t>
+  </si>
+  <si>
+    <t>Header 13</t>
+  </si>
+  <si>
+    <t>Kop 13</t>
+  </si>
+  <si>
+    <t>Header 14</t>
+  </si>
+  <si>
+    <t>Koptekst 14</t>
+  </si>
+  <si>
+    <t>Header 15</t>
+  </si>
+  <si>
+    <t>Koptekst 15</t>
+  </si>
+  <si>
+    <t>Header 16</t>
+  </si>
+  <si>
+    <t>Koptekst 16</t>
+  </si>
+  <si>
+    <t>Header 17</t>
+  </si>
+  <si>
+    <t>Koptekst 17</t>
+  </si>
+  <si>
+    <t>Header 18</t>
+  </si>
+  <si>
+    <t>Koptekst 18</t>
+  </si>
+  <si>
+    <t>Header 19</t>
+  </si>
+  <si>
+    <t>Koptekst 19</t>
+  </si>
+  <si>
+    <t>Header 20</t>
+  </si>
+  <si>
+    <t>Kop 20</t>
+  </si>
+  <si>
+    <t>Header 22</t>
+  </si>
+  <si>
+    <t>Kop 22</t>
+  </si>
+  <si>
+    <t>Misc 1</t>
+  </si>
+  <si>
+    <t>Overig 1</t>
+  </si>
+  <si>
+    <t>Misc 2</t>
+  </si>
+  <si>
+    <t>Diversen 2</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team 5</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 7</t>
+  </si>
+  <si>
+    <t>Team 8</t>
+  </si>
+  <si>
+    <t>Team 9</t>
+  </si>
+  <si>
+    <t>Team 10</t>
+  </si>
+  <si>
+    <t>Team 11</t>
+  </si>
+  <si>
+    <t>Team 13</t>
+  </si>
+  <si>
+    <t>Team 14</t>
+  </si>
+  <si>
+    <t>Team 15</t>
+  </si>
+  <si>
+    <t>Team 16</t>
+  </si>
+  <si>
+    <t>Testimonial 1</t>
+  </si>
+  <si>
+    <t>Getuigenis 1</t>
+  </si>
+  <si>
+    <t>Testimonial 2</t>
+  </si>
+  <si>
+    <t>Getuigenis 2</t>
+  </si>
+  <si>
+    <t>Testimonial 3</t>
+  </si>
+  <si>
+    <t>Getuigenis 3</t>
+  </si>
+  <si>
+    <t>Testimonial 4</t>
+  </si>
+  <si>
+    <t>Getuigenis 4</t>
+  </si>
+  <si>
+    <t>Testimonial 5</t>
+  </si>
+  <si>
+    <t>Getuigenis 5</t>
+  </si>
+  <si>
+    <t>Testimonial 6</t>
+  </si>
+  <si>
+    <t>Getuigenis 6</t>
+  </si>
+  <si>
+    <t>Testimonial 7</t>
+  </si>
+  <si>
+    <t>Getuigenis 7</t>
+  </si>
+  <si>
+    <t>Testimonial 8</t>
+  </si>
+  <si>
+    <t>Getuigenis 8</t>
+  </si>
+  <si>
+    <t>Testimonial 9</t>
+  </si>
+  <si>
+    <t>Getuigenis 9</t>
+  </si>
+  <si>
+    <t>Testimonial 10</t>
+  </si>
+  <si>
+    <t>Getuigenis 10</t>
+  </si>
+  <si>
+    <t>Testimonial 11</t>
+  </si>
+  <si>
+    <t>Getuigenis 11</t>
+  </si>
+  <si>
+    <t>Testimonial 12</t>
+  </si>
+  <si>
+    <t>Getuigenis 12</t>
+  </si>
+  <si>
+    <t>Testimonial 13</t>
+  </si>
+  <si>
+    <t>Getuigenis 13</t>
+  </si>
+  <si>
+    <t>Testimonial 14</t>
+  </si>
+  <si>
+    <t>Getuigenis 14</t>
+  </si>
+  <si>
+    <t>Testimonial 15</t>
+  </si>
+  <si>
+    <t>Getuigenis 15</t>
+  </si>
+  <si>
+    <t>Testimonial 16</t>
+  </si>
+  <si>
+    <t>Getuigenis 16</t>
+  </si>
+  <si>
+    <t>Testimonial 17</t>
+  </si>
+  <si>
+    <t>Getuigenis 17</t>
+  </si>
+  <si>
+    <t>Testimonial 18</t>
+  </si>
+  <si>
+    <t>Getuigenis 18</t>
+  </si>
+  <si>
+    <t>Testimonial 19</t>
+  </si>
+  <si>
+    <t>Getuigenis 19</t>
+  </si>
+  <si>
+    <t>Testimonial 20</t>
+  </si>
+  <si>
+    <t>Getuigenis 20</t>
+  </si>
+  <si>
+    <t>Misc 3</t>
+  </si>
+  <si>
+    <t>Diversen 3</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Secties</t>
+  </si>
+  <si>
+    <t>Are you sure you want to reset the content?</t>
+  </si>
+  <si>
+    <t>Weet u zeker dat u de inhoud opnieuw wilt instellen?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to reset the content and modules?</t>
+  </si>
+  <si>
+    <t>Weet u zeker dat u de inhoud en modules opnieuw wilt instellen?</t>
+  </si>
+  <si>
+    <t>Also reset modules?</t>
+  </si>
+  <si>
+    <t>Ook modules resetten?</t>
+  </si>
+  <si>
+    <t>Misc 4</t>
+  </si>
+  <si>
+    <t>Diversen 4</t>
+  </si>
+  <si>
+    <t>Misc 5</t>
+  </si>
+  <si>
+    <t>Diversen 5</t>
+  </si>
+  <si>
+    <t>Choose your button color from the dropdown.</t>
+  </si>
+  <si>
+    <t>Kies uw knopkleur in de vervolgkeuzelijst.</t>
+  </si>
+  <si>
+    <t>Choose your button size from the dropdown.</t>
+  </si>
+  <si>
+    <t>Kies uw knoopmaat in de vervolgkeuzelijst.</t>
+  </si>
+  <si>
+    <t>Misc 6</t>
+  </si>
+  <si>
+    <t>Diversen 6</t>
+  </si>
+  <si>
+    <t>Misc 7</t>
+  </si>
+  <si>
+    <t>Diversen 7</t>
+  </si>
+  <si>
+    <t>Misc 8</t>
+  </si>
+  <si>
+    <t>Diversen 8</t>
+  </si>
+  <si>
+    <t>Misc 9</t>
+  </si>
+  <si>
+    <t>Diversen 9</t>
+  </si>
+  <si>
+    <t>Misc 10</t>
+  </si>
+  <si>
+    <t>Diversen 10</t>
+  </si>
+  <si>
+    <t>Misc 11</t>
+  </si>
+  <si>
+    <t>Diversen 11</t>
+  </si>
+  <si>
+    <t>Folder name</t>
+  </si>
+  <si>
+    <t>Naam van de map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a search term above to begin searching images from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voer hierboven een zoekterm in om te beginnen met zoeken naar afbeeldingen </t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>galerij</t>
+  </si>
+  <si>
+    <t>Leave a comment</t>
+  </si>
+  <si>
+    <t>laat een reactie achter</t>
+  </si>
+  <si>
+    <t>Ecommerce 8</t>
+  </si>
+  <si>
+    <t>E-commerce 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Amount: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totaalbedrag: </t>
+  </si>
+  <si>
+    <t>The name of your field</t>
+  </si>
+  <si>
+    <t>De naam van uw veld</t>
+  </si>
+  <si>
+    <t>Add, remove and change positions of your values</t>
+  </si>
+  <si>
+    <t>Voeg toe, verwijder en verander posities van uw waarden</t>
+  </si>
+  <si>
+    <t>Field type</t>
+  </si>
+  <si>
+    <t>Organize in columns on different resolutions</t>
+  </si>
+  <si>
+    <t>Organiseer in kolommen op verschillende resoluties</t>
+  </si>
+  <si>
+    <t>Used for templates based on bootstrap</t>
+  </si>
+  <si>
+    <t>Wordt gebruikt voor sjablonen op basis van bootstrap</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Bureaublad</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Mobiel</t>
+  </si>
+  <si>
+    <t>Is this field required?</t>
+  </si>
+  <si>
+    <t>Multiple Choices</t>
+  </si>
+  <si>
+    <t>Allow multiple choices</t>
+  </si>
+  <si>
+    <t>Sta meerdere keuzes toe</t>
+  </si>
+  <si>
+    <t>Specifies a short hint that describes the expected value of an input field</t>
+  </si>
+  <si>
+    <t>Specificeert een korte hint die de verwachte waarde van een invoerveld beschrijft</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waarde in </t>
+  </si>
+  <si>
+    <t>Your price</t>
+  </si>
+  <si>
+    <t>Jouw prijs</t>
+  </si>
+  <si>
+    <t>Set offer price</t>
+  </si>
+  <si>
+    <t>Stel de aanbiedingsprijs in</t>
+  </si>
+  <si>
+    <t>Your offer price</t>
+  </si>
+  <si>
+    <t>Uw biedprijs</t>
+  </si>
+  <si>
+    <t>New price</t>
+  </si>
+  <si>
+    <t>Nieuwe prijs</t>
+  </si>
+  <si>
+    <t>Your new offer price</t>
+  </si>
+  <si>
+    <t>Uw nieuwe aanbiedingsprijs</t>
+  </si>
+  <si>
+    <t>Untitled content</t>
+  </si>
+  <si>
+    <t>Naamloze inhoud</t>
+  </si>
+  <si>
+    <t>You do not have custom fields</t>
+  </si>
+  <si>
+    <t>U heeft geen aangepaste velden</t>
+  </si>
+  <si>
+    <t>Edit language</t>
+  </si>
+  <si>
+    <t>Is active</t>
+  </si>
+  <si>
+    <t>Display Locale</t>
+  </si>
+  <si>
+    <t>Landinstellingen weergeven</t>
+  </si>
+  <si>
+    <t>Display Icon</t>
+  </si>
+  <si>
+    <t>Beeldschermsymbool</t>
+  </si>
+  <si>
+    <t>Define how the slug in the url will be shown</t>
+  </si>
+  <si>
+    <t>Bepaal hoe de slug in de url wordt weergegeven</t>
+  </si>
+  <si>
+    <t>Translation name in the website switcher</t>
+  </si>
+  <si>
+    <t>Vertaalnaam in de website-switcher</t>
+  </si>
+  <si>
+    <t>Change the flag with your own image</t>
+  </si>
+  <si>
+    <t>Verander de vlag met uw eigen afbeelding</t>
+  </si>
+  <si>
+    <t>Multilanguage settings</t>
+  </si>
+  <si>
+    <t>Meertalige instellingen</t>
+  </si>
+  <si>
+    <t>Manage Multilanguage</t>
+  </si>
+  <si>
     <t>Beheer meertalige</t>
-  </si>
-  <si>
-    <t>Activate Multilanguage Module</t>
-  </si>
-  <si>
-    <t>Activeer meertalige module</t>
-  </si>
-  <si>
-    <t>Choose mail providers to save your contacts information data</t>
-  </si>
-  <si>
-    <t>Kies e-mailproviders om uw contactgegevens op te slaan</t>
-  </si>
-  <si>
-    <t>Send the autorespond emails to</t>
-  </si>
-  <si>
-    <t>Stuur de autorespond-e-mails naar</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Optie</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>Controleren</t>
-  </si>
-  <si>
-    <t>Blog 1</t>
-  </si>
-  <si>
-    <t>Blog 2</t>
-  </si>
-  <si>
-    <t>Blog 3</t>
-  </si>
-  <si>
-    <t>Blog 4</t>
-  </si>
-  <si>
-    <t>Blog 5</t>
-  </si>
-  <si>
-    <t>Blog 6</t>
-  </si>
-  <si>
-    <t>Blog 7</t>
-  </si>
-  <si>
-    <t>Blog 8</t>
-  </si>
-  <si>
-    <t>Blog 9</t>
-  </si>
-  <si>
-    <t>Blog 10</t>
-  </si>
-  <si>
-    <t>Blog 11</t>
-  </si>
-  <si>
-    <t>Blog 12</t>
-  </si>
-  <si>
-    <t>Blog 13</t>
-  </si>
-  <si>
-    <t>Call to action 1</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 1</t>
-  </si>
-  <si>
-    <t>Call to action 2</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 2</t>
-  </si>
-  <si>
-    <t>Call to action 3</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 3</t>
-  </si>
-  <si>
-    <t>Call to action 4</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 4</t>
-  </si>
-  <si>
-    <t>Call to action 5</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 5</t>
-  </si>
-  <si>
-    <t>Call to action 6</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 6</t>
-  </si>
-  <si>
-    <t>Call to action 7</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 7</t>
-  </si>
-  <si>
-    <t>Call to action 8</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 8</t>
-  </si>
-  <si>
-    <t>Call to action 9</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 9</t>
-  </si>
-  <si>
-    <t>Call to action 10</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 10</t>
-  </si>
-  <si>
-    <t>Call to action 11</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 11</t>
-  </si>
-  <si>
-    <t>Call to action 12</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 12</t>
-  </si>
-  <si>
-    <t>Call to action 13</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 13</t>
-  </si>
-  <si>
-    <t>Call to action 14</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 14</t>
-  </si>
-  <si>
-    <t>Call to action 15</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 15</t>
-  </si>
-  <si>
-    <t>Call to action 16</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 16</t>
-  </si>
-  <si>
-    <t>Call to action 17</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 17</t>
-  </si>
-  <si>
-    <t>Call to action 18</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 18</t>
-  </si>
-  <si>
-    <t>Call to action 19</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 19</t>
-  </si>
-  <si>
-    <t>Call to action 20</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 20</t>
-  </si>
-  <si>
-    <t>Call to action 21</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 21</t>
-  </si>
-  <si>
-    <t>Call to action 22</t>
-  </si>
-  <si>
-    <t>Oproep tot actie 22</t>
-  </si>
-  <si>
-    <t>Contacts 1</t>
-  </si>
-  <si>
-    <t>Contacten 1</t>
-  </si>
-  <si>
-    <t>Contacts 2</t>
-  </si>
-  <si>
-    <t>Contacten 2</t>
-  </si>
-  <si>
-    <t>Contacts 3</t>
-  </si>
-  <si>
-    <t>Contacten 3</t>
-  </si>
-  <si>
-    <t>Contacts 4</t>
-  </si>
-  <si>
-    <t>Contacten 4</t>
-  </si>
-  <si>
-    <t>Contacts 5</t>
-  </si>
-  <si>
-    <t>Contacten 5</t>
-  </si>
-  <si>
-    <t>Contacts 6</t>
-  </si>
-  <si>
-    <t>Contacten 6</t>
-  </si>
-  <si>
-    <t>Contacts 7</t>
-  </si>
-  <si>
-    <t>Contacten 7</t>
-  </si>
-  <si>
-    <t>Contacts 8</t>
-  </si>
-  <si>
-    <t>Contacten 8</t>
-  </si>
-  <si>
-    <t>Contacts 9</t>
-  </si>
-  <si>
-    <t>Contacten 9</t>
-  </si>
-  <si>
-    <t>Contacts 10</t>
-  </si>
-  <si>
-    <t>Contacten 10</t>
-  </si>
-  <si>
-    <t>Contacts 11</t>
-  </si>
-  <si>
-    <t>Contacten 11</t>
-  </si>
-  <si>
-    <t>Content 1</t>
-  </si>
-  <si>
-    <t>Inhoud 1</t>
-  </si>
-  <si>
-    <t>Content 2</t>
-  </si>
-  <si>
-    <t>Inhoud 2</t>
-  </si>
-  <si>
-    <t>Content 3</t>
-  </si>
-  <si>
-    <t>Inhoud 3</t>
-  </si>
-  <si>
-    <t>Content 4</t>
-  </si>
-  <si>
-    <t>Inhoud 4</t>
-  </si>
-  <si>
-    <t>Content 5</t>
-  </si>
-  <si>
-    <t>Inhoud 5</t>
-  </si>
-  <si>
-    <t>Content 6</t>
-  </si>
-  <si>
-    <t>Inhoud 6</t>
-  </si>
-  <si>
-    <t>Content 7</t>
-  </si>
-  <si>
-    <t>Inhoud 7</t>
-  </si>
-  <si>
-    <t>Content 8</t>
-  </si>
-  <si>
-    <t>Inhoud 8</t>
-  </si>
-  <si>
-    <t>Content 9</t>
-  </si>
-  <si>
-    <t>Inhoud 9</t>
-  </si>
-  <si>
-    <t>Content 10</t>
-  </si>
-  <si>
-    <t>Inhoud 10</t>
-  </si>
-  <si>
-    <t>Content 11</t>
-  </si>
-  <si>
-    <t>Inhoud 11</t>
-  </si>
-  <si>
-    <t>Content 12</t>
-  </si>
-  <si>
-    <t>Inhoud 12</t>
-  </si>
-  <si>
-    <t>Content 13</t>
-  </si>
-  <si>
-    <t>Inhoud 13</t>
-  </si>
-  <si>
-    <t>Content 14</t>
-  </si>
-  <si>
-    <t>Inhoud 14</t>
-  </si>
-  <si>
-    <t>Content 15</t>
-  </si>
-  <si>
-    <t>Inhoud 15</t>
-  </si>
-  <si>
-    <t>Content 16</t>
-  </si>
-  <si>
-    <t>Inhoud 16</t>
-  </si>
-  <si>
-    <t>Content 17</t>
-  </si>
-  <si>
-    <t>Inhoud 17</t>
-  </si>
-  <si>
-    <t>Content 18</t>
-  </si>
-  <si>
-    <t>Inhoud 18</t>
-  </si>
-  <si>
-    <t>Content 19</t>
-  </si>
-  <si>
-    <t>Inhoud 19</t>
-  </si>
-  <si>
-    <t>Content 20</t>
-  </si>
-  <si>
-    <t>Inhoud 20</t>
-  </si>
-  <si>
-    <t>Content 21</t>
-  </si>
-  <si>
-    <t>Inhoud 21</t>
-  </si>
-  <si>
-    <t>Content 22</t>
-  </si>
-  <si>
-    <t>Inhoud 22</t>
-  </si>
-  <si>
-    <t>Content 23</t>
-  </si>
-  <si>
-    <t>Inhoud 23</t>
-  </si>
-  <si>
-    <t>Content 24</t>
-  </si>
-  <si>
-    <t>Inhoud 24</t>
-  </si>
-  <si>
-    <t>Content 25</t>
-  </si>
-  <si>
-    <t>Inhoud 25</t>
-  </si>
-  <si>
-    <t>Content 26</t>
-  </si>
-  <si>
-    <t>Inhoud 26</t>
-  </si>
-  <si>
-    <t>Content 27</t>
-  </si>
-  <si>
-    <t>Inhoud 27</t>
-  </si>
-  <si>
-    <t>Content 28</t>
-  </si>
-  <si>
-    <t>Inhoud 28</t>
-  </si>
-  <si>
-    <t>Content 29</t>
-  </si>
-  <si>
-    <t>Inhoud 29</t>
-  </si>
-  <si>
-    <t>Content 30</t>
-  </si>
-  <si>
-    <t>Inhoud 30</t>
-  </si>
-  <si>
-    <t>Content 31</t>
-  </si>
-  <si>
-    <t>Inhoud 31</t>
-  </si>
-  <si>
-    <t>Content 32</t>
-  </si>
-  <si>
-    <t>Inhoud 32</t>
-  </si>
-  <si>
-    <t>Content 33</t>
-  </si>
-  <si>
-    <t>Inhoud 33</t>
-  </si>
-  <si>
-    <t>Content 34</t>
-  </si>
-  <si>
-    <t>Inhoud 34</t>
-  </si>
-  <si>
-    <t>Content 35</t>
-  </si>
-  <si>
-    <t>Inhoud 35</t>
-  </si>
-  <si>
-    <t>Content 36</t>
-  </si>
-  <si>
-    <t>Inhoud 36</t>
-  </si>
-  <si>
-    <t>Content 37</t>
-  </si>
-  <si>
-    <t>Inhoud 37</t>
-  </si>
-  <si>
-    <t>Content 38</t>
-  </si>
-  <si>
-    <t>Inhoud 38</t>
-  </si>
-  <si>
-    <t>Content 39</t>
-  </si>
-  <si>
-    <t>Inhoud 39</t>
-  </si>
-  <si>
-    <t>Content 40</t>
-  </si>
-  <si>
-    <t>Inhoud 40</t>
-  </si>
-  <si>
-    <t>Content 41</t>
-  </si>
-  <si>
-    <t>Inhoud 41</t>
-  </si>
-  <si>
-    <t>Content 42</t>
-  </si>
-  <si>
-    <t>Inhoud 42</t>
-  </si>
-  <si>
-    <t>Content 43</t>
-  </si>
-  <si>
-    <t>Inhoud 43</t>
-  </si>
-  <si>
-    <t>Content 44</t>
-  </si>
-  <si>
-    <t>Inhoud 44</t>
-  </si>
-  <si>
-    <t>Content 45</t>
-  </si>
-  <si>
-    <t>Inhoud 45</t>
-  </si>
-  <si>
-    <t>Content 46</t>
-  </si>
-  <si>
-    <t>Inhoud 46</t>
-  </si>
-  <si>
-    <t>Content 47</t>
-  </si>
-  <si>
-    <t>Inhoud 47</t>
-  </si>
-  <si>
-    <t>Content 48</t>
-  </si>
-  <si>
-    <t>Inhoud 48</t>
-  </si>
-  <si>
-    <t>Content 49</t>
-  </si>
-  <si>
-    <t>Inhoud 49</t>
-  </si>
-  <si>
-    <t>Content 50</t>
-  </si>
-  <si>
-    <t>Inhoud 50</t>
-  </si>
-  <si>
-    <t>Content 51</t>
-  </si>
-  <si>
-    <t>Inhoud 51</t>
-  </si>
-  <si>
-    <t>Content 52</t>
-  </si>
-  <si>
-    <t>Inhoud 52</t>
-  </si>
-  <si>
-    <t>Content 53</t>
-  </si>
-  <si>
-    <t>Inhoud 53</t>
-  </si>
-  <si>
-    <t>Content 54</t>
-  </si>
-  <si>
-    <t>Inhoud 54</t>
-  </si>
-  <si>
-    <t>Content 55</t>
-  </si>
-  <si>
-    <t>Inhoud 55</t>
-  </si>
-  <si>
-    <t>Content 56</t>
-  </si>
-  <si>
-    <t>Inhoud 56</t>
-  </si>
-  <si>
-    <t>Content 57</t>
-  </si>
-  <si>
-    <t>Inhoud 57</t>
-  </si>
-  <si>
-    <t>Content 58</t>
-  </si>
-  <si>
-    <t>Inhoud 58</t>
-  </si>
-  <si>
-    <t>Content 59</t>
-  </si>
-  <si>
-    <t>Inhoud 59</t>
-  </si>
-  <si>
-    <t>Ecommerce 1</t>
-  </si>
-  <si>
-    <t>E-commerce 1</t>
-  </si>
-  <si>
-    <t>Ecommerce 2</t>
-  </si>
-  <si>
-    <t>E-commerce 2</t>
-  </si>
-  <si>
-    <t>Ecommerce 3</t>
-  </si>
-  <si>
-    <t>E-commerce 3</t>
-  </si>
-  <si>
-    <t>Ecommerce 4</t>
-  </si>
-  <si>
-    <t>E-commerce 4</t>
-  </si>
-  <si>
-    <t>Ecommerce 5</t>
-  </si>
-  <si>
-    <t>E-commerce 5</t>
-  </si>
-  <si>
-    <t>Ecommerce 6</t>
-  </si>
-  <si>
-    <t>E-commerce 6</t>
-  </si>
-  <si>
-    <t>Ecommerce 7</t>
-  </si>
-  <si>
-    <t>E-commerce 7</t>
-  </si>
-  <si>
-    <t>Feature 1</t>
-  </si>
-  <si>
-    <t>Eigenschap 1</t>
-  </si>
-  <si>
-    <t>Feature 2</t>
-  </si>
-  <si>
-    <t>Eigenschap 2</t>
-  </si>
-  <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t>Eigenschap 3</t>
-  </si>
-  <si>
-    <t>Feature 4</t>
-  </si>
-  <si>
-    <t>Eigenschap 4</t>
-  </si>
-  <si>
-    <t>Feature 5</t>
-  </si>
-  <si>
-    <t>Kenmerk 5</t>
-  </si>
-  <si>
-    <t>Feature 6</t>
-  </si>
-  <si>
-    <t>Kenmerk 6</t>
-  </si>
-  <si>
-    <t>Feature 7</t>
-  </si>
-  <si>
-    <t>Kenmerk 7</t>
-  </si>
-  <si>
-    <t>Feature 8</t>
-  </si>
-  <si>
-    <t>Functie 8</t>
-  </si>
-  <si>
-    <t>Feature 9</t>
-  </si>
-  <si>
-    <t>Functie 9</t>
-  </si>
-  <si>
-    <t>Feature 10</t>
-  </si>
-  <si>
-    <t>Functie 10</t>
-  </si>
-  <si>
-    <t>Feature 11</t>
-  </si>
-  <si>
-    <t>Functie 11</t>
-  </si>
-  <si>
-    <t>Feature 12</t>
-  </si>
-  <si>
-    <t>Functie 12</t>
-  </si>
-  <si>
-    <t>Feature 14</t>
-  </si>
-  <si>
-    <t>Functie 14</t>
-  </si>
-  <si>
-    <t>Feature 15</t>
-  </si>
-  <si>
-    <t>Functie 15</t>
-  </si>
-  <si>
-    <t>Feature 16</t>
-  </si>
-  <si>
-    <t>Functie 16</t>
-  </si>
-  <si>
-    <t>Feature 17</t>
-  </si>
-  <si>
-    <t>Functie 17</t>
-  </si>
-  <si>
-    <t>Feature 18</t>
-  </si>
-  <si>
-    <t>Functie 18</t>
-  </si>
-  <si>
-    <t>Feature 19</t>
-  </si>
-  <si>
-    <t>Functie 19</t>
-  </si>
-  <si>
-    <t>Feature 20</t>
-  </si>
-  <si>
-    <t>Functie 20</t>
-  </si>
-  <si>
-    <t>Feature 21</t>
-  </si>
-  <si>
-    <t>Functie 21</t>
-  </si>
-  <si>
-    <t>Feature 22</t>
-  </si>
-  <si>
-    <t>Functie 22</t>
-  </si>
-  <si>
-    <t>Feature 23</t>
-  </si>
-  <si>
-    <t>Functie 23</t>
-  </si>
-  <si>
-    <t>Feature 24</t>
-  </si>
-  <si>
-    <t>Functie 24</t>
-  </si>
-  <si>
-    <t>Feature 25</t>
-  </si>
-  <si>
-    <t>Functie 25</t>
-  </si>
-  <si>
-    <t>Feature 26</t>
-  </si>
-  <si>
-    <t>Functie 26</t>
-  </si>
-  <si>
-    <t>Feature 27</t>
-  </si>
-  <si>
-    <t>Functie 27</t>
-  </si>
-  <si>
-    <t>Feature 28</t>
-  </si>
-  <si>
-    <t>Functie 28</t>
-  </si>
-  <si>
-    <t>Feature 29</t>
-  </si>
-  <si>
-    <t>Functie 29</t>
-  </si>
-  <si>
-    <t>Feature 30</t>
-  </si>
-  <si>
-    <t>Eigenschap 30</t>
-  </si>
-  <si>
-    <t>Feature 31</t>
-  </si>
-  <si>
-    <t>Functie 31</t>
-  </si>
-  <si>
-    <t>Feature 32</t>
-  </si>
-  <si>
-    <t>Eigenschap 32</t>
-  </si>
-  <si>
-    <t>Feature 33</t>
-  </si>
-  <si>
-    <t>Eigenschap 33</t>
-  </si>
-  <si>
-    <t>Feature 34</t>
-  </si>
-  <si>
-    <t>Eigenschap 34</t>
-  </si>
-  <si>
-    <t>Feature 35</t>
-  </si>
-  <si>
-    <t>Eigenschap 35</t>
-  </si>
-  <si>
-    <t>Gallery 1</t>
-  </si>
-  <si>
-    <t>Galerij 1</t>
-  </si>
-  <si>
-    <t>Gallery 2</t>
-  </si>
-  <si>
-    <t>Galerij 2</t>
-  </si>
-  <si>
-    <t>Gallery 3</t>
-  </si>
-  <si>
-    <t>Galerij 3</t>
-  </si>
-  <si>
-    <t>Gallery 4</t>
-  </si>
-  <si>
-    <t>Galerij 4</t>
-  </si>
-  <si>
-    <t>Gallery 5</t>
-  </si>
-  <si>
-    <t>Galerij 5</t>
-  </si>
-  <si>
-    <t>Gallery 6</t>
-  </si>
-  <si>
-    <t>Galerij 6</t>
-  </si>
-  <si>
-    <t>Gallery 7</t>
-  </si>
-  <si>
-    <t>Galerij 7</t>
-  </si>
-  <si>
-    <t>Gallery 8</t>
-  </si>
-  <si>
-    <t>Galerij 8</t>
-  </si>
-  <si>
-    <t>Gallery 9</t>
-  </si>
-  <si>
-    <t>Galerij 9</t>
-  </si>
-  <si>
-    <t>Gallery 10</t>
-  </si>
-  <si>
-    <t>Galerij 10</t>
-  </si>
-  <si>
-    <t>Gallery 11</t>
-  </si>
-  <si>
-    <t>Galerij 11</t>
-  </si>
-  <si>
-    <t>Gallery 12</t>
-  </si>
-  <si>
-    <t>Galerij 12</t>
-  </si>
-  <si>
-    <t>Grid 1</t>
-  </si>
-  <si>
-    <t>Raster 1</t>
-  </si>
-  <si>
-    <t>Grid 2</t>
-  </si>
-  <si>
-    <t>Rooster 2</t>
-  </si>
-  <si>
-    <t>Grid 3</t>
-  </si>
-  <si>
-    <t>Raster 3</t>
-  </si>
-  <si>
-    <t>Grid 4</t>
-  </si>
-  <si>
-    <t>Raster 4</t>
-  </si>
-  <si>
-    <t>Grid 5</t>
-  </si>
-  <si>
-    <t>Raster 5</t>
-  </si>
-  <si>
-    <t>Grid 6</t>
-  </si>
-  <si>
-    <t>Raster 6</t>
-  </si>
-  <si>
-    <t>Grid 7</t>
-  </si>
-  <si>
-    <t>Raster 7</t>
-  </si>
-  <si>
-    <t>Grid 8</t>
-  </si>
-  <si>
-    <t>Raster 8</t>
-  </si>
-  <si>
-    <t>Grid 9</t>
-  </si>
-  <si>
-    <t>Raster 9</t>
-  </si>
-  <si>
-    <t>Grid 10</t>
-  </si>
-  <si>
-    <t>Raster 10</t>
-  </si>
-  <si>
-    <t>Grid 11</t>
-  </si>
-  <si>
-    <t>Raster 11</t>
-  </si>
-  <si>
-    <t>Grid 12</t>
-  </si>
-  <si>
-    <t>Raster 12</t>
-  </si>
-  <si>
-    <t>Grid 13</t>
-  </si>
-  <si>
-    <t>Raster 13</t>
-  </si>
-  <si>
-    <t>Grid 14</t>
-  </si>
-  <si>
-    <t>Raster 14</t>
-  </si>
-  <si>
-    <t>Header 1</t>
-  </si>
-  <si>
-    <t>Koptekst 1</t>
-  </si>
-  <si>
-    <t>Header 2</t>
-  </si>
-  <si>
-    <t>Koptekst 2</t>
-  </si>
-  <si>
-    <t>Header 3</t>
-  </si>
-  <si>
-    <t>Koptekst 3</t>
-  </si>
-  <si>
-    <t>Header 4</t>
-  </si>
-  <si>
-    <t>Koptekst 4</t>
-  </si>
-  <si>
-    <t>Header 5</t>
-  </si>
-  <si>
-    <t>Koptekst 5</t>
-  </si>
-  <si>
-    <t>Header 6</t>
-  </si>
-  <si>
-    <t>Koptekst 6</t>
-  </si>
-  <si>
-    <t>Header 7</t>
-  </si>
-  <si>
-    <t>Koptekst 7</t>
-  </si>
-  <si>
-    <t>Header 8</t>
-  </si>
-  <si>
-    <t>Koptekst 8</t>
-  </si>
-  <si>
-    <t>Header 9</t>
-  </si>
-  <si>
-    <t>Koptekst 9</t>
-  </si>
-  <si>
-    <t>Header 11</t>
-  </si>
-  <si>
-    <t>Kop 11</t>
-  </si>
-  <si>
-    <t>Header 12</t>
-  </si>
-  <si>
-    <t>Koptekst 12</t>
-  </si>
-  <si>
-    <t>Header 13</t>
-  </si>
-  <si>
-    <t>Kop 13</t>
-  </si>
-  <si>
-    <t>Header 14</t>
-  </si>
-  <si>
-    <t>Koptekst 14</t>
-  </si>
-  <si>
-    <t>Header 15</t>
-  </si>
-  <si>
-    <t>Koptekst 15</t>
-  </si>
-  <si>
-    <t>Header 16</t>
-  </si>
-  <si>
-    <t>Koptekst 16</t>
-  </si>
-  <si>
-    <t>Header 17</t>
-  </si>
-  <si>
-    <t>Koptekst 17</t>
-  </si>
-  <si>
-    <t>Header 18</t>
-  </si>
-  <si>
-    <t>Koptekst 18</t>
-  </si>
-  <si>
-    <t>Header 19</t>
-  </si>
-  <si>
-    <t>Koptekst 19</t>
-  </si>
-  <si>
-    <t>Header 20</t>
-  </si>
-  <si>
-    <t>Kop 20</t>
-  </si>
-  <si>
-    <t>Header 22</t>
-  </si>
-  <si>
-    <t>Kop 22</t>
-  </si>
-  <si>
-    <t>Misc 1</t>
-  </si>
-  <si>
-    <t>Overig 1</t>
-  </si>
-  <si>
-    <t>Misc 2</t>
-  </si>
-  <si>
-    <t>Diversen 2</t>
-  </si>
-  <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
-    <t>Team 5</t>
-  </si>
-  <si>
-    <t>Team 6</t>
-  </si>
-  <si>
-    <t>Team 7</t>
-  </si>
-  <si>
-    <t>Team 8</t>
-  </si>
-  <si>
-    <t>Team 9</t>
-  </si>
-  <si>
-    <t>Team 10</t>
-  </si>
-  <si>
-    <t>Team 11</t>
-  </si>
-  <si>
-    <t>Team 13</t>
-  </si>
-  <si>
-    <t>Team 14</t>
-  </si>
-  <si>
-    <t>Team 15</t>
-  </si>
-  <si>
-    <t>Team 16</t>
-  </si>
-  <si>
-    <t>Testimonial 1</t>
-  </si>
-  <si>
-    <t>Getuigenis 1</t>
-  </si>
-  <si>
-    <t>Testimonial 2</t>
-  </si>
-  <si>
-    <t>Getuigenis 2</t>
-  </si>
-  <si>
-    <t>Testimonial 3</t>
-  </si>
-  <si>
-    <t>Getuigenis 3</t>
-  </si>
-  <si>
-    <t>Testimonial 4</t>
-  </si>
-  <si>
-    <t>Getuigenis 4</t>
-  </si>
-  <si>
-    <t>Testimonial 5</t>
-  </si>
-  <si>
-    <t>Getuigenis 5</t>
-  </si>
-  <si>
-    <t>Testimonial 6</t>
-  </si>
-  <si>
-    <t>Getuigenis 6</t>
-  </si>
-  <si>
-    <t>Testimonial 7</t>
-  </si>
-  <si>
-    <t>Getuigenis 7</t>
-  </si>
-  <si>
-    <t>Testimonial 8</t>
-  </si>
-  <si>
-    <t>Getuigenis 8</t>
-  </si>
-  <si>
-    <t>Testimonial 9</t>
-  </si>
-  <si>
-    <t>Getuigenis 9</t>
-  </si>
-  <si>
-    <t>Testimonial 10</t>
-  </si>
-  <si>
-    <t>Getuigenis 10</t>
-  </si>
-  <si>
-    <t>Testimonial 11</t>
-  </si>
-  <si>
-    <t>Getuigenis 11</t>
-  </si>
-  <si>
-    <t>Testimonial 12</t>
-  </si>
-  <si>
-    <t>Getuigenis 12</t>
-  </si>
-  <si>
-    <t>Testimonial 13</t>
-  </si>
-  <si>
-    <t>Getuigenis 13</t>
-  </si>
-  <si>
-    <t>Testimonial 14</t>
-  </si>
-  <si>
-    <t>Getuigenis 14</t>
-  </si>
-  <si>
-    <t>Testimonial 15</t>
-  </si>
-  <si>
-    <t>Getuigenis 15</t>
-  </si>
-  <si>
-    <t>Testimonial 16</t>
-  </si>
-  <si>
-    <t>Getuigenis 16</t>
-  </si>
-  <si>
-    <t>Testimonial 17</t>
-  </si>
-  <si>
-    <t>Getuigenis 17</t>
-  </si>
-  <si>
-    <t>Testimonial 18</t>
-  </si>
-  <si>
-    <t>Getuigenis 18</t>
-  </si>
-  <si>
-    <t>Testimonial 19</t>
-  </si>
-  <si>
-    <t>Getuigenis 19</t>
-  </si>
-  <si>
-    <t>Testimonial 20</t>
-  </si>
-  <si>
-    <t>Getuigenis 20</t>
-  </si>
-  <si>
-    <t>Misc 3</t>
-  </si>
-  <si>
-    <t>Diversen 3</t>
-  </si>
-  <si>
-    <t>Sections</t>
-  </si>
-  <si>
-    <t>Secties</t>
-  </si>
-  <si>
-    <t>Are you sure you want to reset the content?</t>
-  </si>
-  <si>
-    <t>Weet u zeker dat u de inhoud opnieuw wilt instellen?</t>
-  </si>
-  <si>
-    <t>Are you sure you want to reset the content and modules?</t>
-  </si>
-  <si>
-    <t>Weet u zeker dat u de inhoud en modules opnieuw wilt instellen?</t>
-  </si>
-  <si>
-    <t>Also reset modules?</t>
-  </si>
-  <si>
-    <t>Ook modules resetten?</t>
-  </si>
-  <si>
-    <t>Misc 4</t>
-  </si>
-  <si>
-    <t>Diversen 4</t>
-  </si>
-  <si>
-    <t>Misc 5</t>
-  </si>
-  <si>
-    <t>Diversen 5</t>
-  </si>
-  <si>
-    <t>Choose your button color from the dropdown.</t>
-  </si>
-  <si>
-    <t>Kies uw knopkleur in de vervolgkeuzelijst.</t>
-  </si>
-  <si>
-    <t>Choose your button size from the dropdown.</t>
-  </si>
-  <si>
-    <t>Kies uw knoopmaat in de vervolgkeuzelijst.</t>
-  </si>
-  <si>
-    <t>Misc 6</t>
-  </si>
-  <si>
-    <t>Diversen 6</t>
-  </si>
-  <si>
-    <t>Misc 7</t>
-  </si>
-  <si>
-    <t>Diversen 7</t>
-  </si>
-  <si>
-    <t>Misc 8</t>
-  </si>
-  <si>
-    <t>Diversen 8</t>
-  </si>
-  <si>
-    <t>Misc 9</t>
-  </si>
-  <si>
-    <t>Diversen 9</t>
-  </si>
-  <si>
-    <t>Misc 10</t>
-  </si>
-  <si>
-    <t>Diversen 10</t>
-  </si>
-  <si>
-    <t>Misc 11</t>
-  </si>
-  <si>
-    <t>Diversen 11</t>
-  </si>
-  <si>
-    <t>Folder name</t>
-  </si>
-  <si>
-    <t>Naam van de map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter a search term above to begin searching images from </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voer hierboven een zoekterm in om te beginnen met zoeken naar afbeeldingen </t>
-  </si>
-  <si>
-    <t>gallery</t>
-  </si>
-  <si>
-    <t>galerij</t>
-  </si>
-  <si>
-    <t>Leave a comment</t>
-  </si>
-  <si>
-    <t>laat een reactie achter</t>
-  </si>
-  <si>
-    <t>Ecommerce 8</t>
-  </si>
-  <si>
-    <t>E-commerce 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Amount: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totaalbedrag: </t>
-  </si>
-  <si>
-    <t>The name of your field</t>
-  </si>
-  <si>
-    <t>De naam van uw veld</t>
-  </si>
-  <si>
-    <t>Add, remove and change positions of your values</t>
-  </si>
-  <si>
-    <t>Voeg toe, verwijder en verander posities van uw waarden</t>
-  </si>
-  <si>
-    <t>Field type</t>
-  </si>
-  <si>
-    <t>Organize in columns on different resolutions</t>
-  </si>
-  <si>
-    <t>Organiseer in kolommen op verschillende resoluties</t>
-  </si>
-  <si>
-    <t>Used for templates based on bootstrap</t>
-  </si>
-  <si>
-    <t>Wordt gebruikt voor sjablonen op basis van bootstrap</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Bureaublad</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Mobiel</t>
-  </si>
-  <si>
-    <t>Is this field required?</t>
-  </si>
-  <si>
-    <t>Multiple Choices</t>
-  </si>
-  <si>
-    <t>Allow multiple choices</t>
-  </si>
-  <si>
-    <t>Sta meerdere keuzes toe</t>
-  </si>
-  <si>
-    <t>Specifies a short hint that describes the expected value of an input field</t>
-  </si>
-  <si>
-    <t>Specificeert een korte hint die de verwachte waarde van een invoerveld beschrijft</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value in </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waarde in </t>
-  </si>
-  <si>
-    <t>Your price</t>
-  </si>
-  <si>
-    <t>Jouw prijs</t>
-  </si>
-  <si>
-    <t>Set offer price</t>
-  </si>
-  <si>
-    <t>Stel de aanbiedingsprijs in</t>
-  </si>
-  <si>
-    <t>Your offer price</t>
-  </si>
-  <si>
-    <t>Uw biedprijs</t>
-  </si>
-  <si>
-    <t>New price</t>
-  </si>
-  <si>
-    <t>Nieuwe prijs</t>
-  </si>
-  <si>
-    <t>Your new offer price</t>
-  </si>
-  <si>
-    <t>Uw nieuwe aanbiedingsprijs</t>
-  </si>
-  <si>
-    <t>Untitled content</t>
-  </si>
-  <si>
-    <t>Naamloze inhoud</t>
-  </si>
-  <si>
-    <t>You do not have custom fields</t>
-  </si>
-  <si>
-    <t>U heeft geen aangepaste velden</t>
-  </si>
-  <si>
-    <t>Edit language</t>
-  </si>
-  <si>
-    <t>Is active</t>
-  </si>
-  <si>
-    <t>Display Locale</t>
-  </si>
-  <si>
-    <t>Landinstellingen weergeven</t>
-  </si>
-  <si>
-    <t>Display Icon</t>
-  </si>
-  <si>
-    <t>Beeldschermsymbool</t>
-  </si>
-  <si>
-    <t>Define how the slug in the url will be shown</t>
-  </si>
-  <si>
-    <t>Bepaal hoe de slug in de url wordt weergegeven</t>
-  </si>
-  <si>
-    <t>Translation name in the website switcher</t>
-  </si>
-  <si>
-    <t>Vertaalnaam in de website-switcher</t>
-  </si>
-  <si>
-    <t>Change the flag with your own image</t>
-  </si>
-  <si>
-    <t>Verander de vlag met uw eigen afbeelding</t>
-  </si>
-  <si>
-    <t>Multilanguage settings</t>
-  </si>
-  <si>
-    <t>Meertalige instellingen</t>
-  </si>
-  <si>
-    <t>Manage Multilanguage</t>
   </si>
   <si>
     <t>Full Name</t>
@@ -17520,6 +17523,891 @@
                                                     Denk na over wat u als consument zou willen weten en neem die kenmerken vervolgens op in uw beschrijving. Voor kleding: materialen en pasvorm. Voor voedsel: ingrediënten en hoe het werd bereid. Opsommingstekens zijn je vrienden bij het vermelden van
                                                    objecten - probeer
                                                             elk te beperken tot 5-8 woorden.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Admin taal</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Begrenzing</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Code-editor</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titels</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titels 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titels 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titels 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titels 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titels 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titels 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titels 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titels 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>tekstblok</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Tekstblok 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Tekstblok 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Tekstblok 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Tekstblok 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Tekstblok 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Tekstblok 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Tekstblok 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Tekstblok 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Tekstblok 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Tekstblok 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Tekstblok 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Tekstblok 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Tekstblok 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Tekstblok 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Tekstblok 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Eigenschappen 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Functies 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Eigenschappen 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Functies 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>roosters</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - huid-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - huid-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - huid-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - huid-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menu - huid-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>voetteksten</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Voetteksten 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Voetteksten 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Voetteksten 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Voetteksten 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>ander</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>prijzen</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Prijs 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Standaardlay-outs</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Geen inhoud hier</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Aangepaste velden worden opgeslagen</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bestaande velden</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Kies hieronder uit uw bestaande velden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nieuwe velden toevoegen</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Nieuw aangepast veld toevoegen uit onderstaande lijst</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Uw velden</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lijst met uw toegevoegde aangepaste velden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herhaal verticaal </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Lettertypefamilie</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>overlay</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Overvloeimodus</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>containertype:</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animaties</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Stijlen opnieuw laden</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Links naar</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Voorbeeldpakket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Gebruik</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Huidig</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Opnieuw ordenen</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Systeem</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Browser-omleiding</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>integratie</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Zelfstandige updater</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>U hebt een licentiesleutel nodig om dit pakket te installeren</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Dit pakket is premium en je moet een licentiesleutel hebben om het te installeren</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Je hebt een licentiesleutel nodig</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licentie geactiveerd</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Pagina opnieuw laden</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licentie niet geactiveerd</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Systeemupdates</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Controleren op systeemupdates</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Terug naar lijst</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>De categorie moet een naam hebben</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Is categorie verborgen?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Als u dit instelt op JA, wordt deze categorie verborgen voor de website</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Vermelden</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Uw winkelwagen is leeg.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Gevonden resultaten</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Als u het Percentage kiest in het geselecteerde veld, wordt dit automatisch berekend op basis van de Prijs en Aanbiedingsprijs van het product.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>waarden.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Ga naar de kassa</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Weergeven</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>resultaat(en)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Paginatitel - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Paginatitel - linker broodkruimel</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Gebruiksvoorwaarden</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Levering en retouren</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>ongeveer 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>ongeveer 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>ongeveer 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Thuis 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>huis 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>U moet op de knop Sjabloon toepassen klikken om uw sjabloon te wijzigen</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Zoeken op criteria</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Datum vanaf</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Stel de bestellingen in vanaf datum</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Datum naar</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Zet de bestellingen tot op heden</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Bestelbedrag vanaf</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Toon de bestelling met minimumbedrag</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Bestelbedrag tot</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Toon de bestelling met het maximale bedrag</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Zoeken op producten...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Zoeken op producten</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Betalingsstatus</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Gratis zoeken op telefoon, naam, e-mail etc...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Dien deze criteria in</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Filter resetten</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Alles exporteren</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Selecteer sorteren</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Besteldatum</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nieuw &gt; Oud]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Oud &gt; Nieuw]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Hoog &gt; Laag]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Laag &gt; Hoog]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Bestelling voltooid</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>vertalingen van de meertalige module zijn gevonden in uw database.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Waarschuwing! Als u de standaardtaal wijzigt, kunnen vertalingen op uw site worden verbroken.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Weet je zeker dat je wilt doorgaan?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Waarschuwing! De veranderende standaardtaal zal uw site misschien kapot maken.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Verzendgegevens</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Verzendtype:</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>de bestelling is nog niet voltooid</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>de bestelling is voltooid</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Gemaakt bij</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snelle kijk </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Taalwaarden vervangen</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Vertalingen worden geïmporteerd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertalingen niet gevonden in database. Wilt u vertalingen importeren? </t>
   </si>
 </sst>
 </file>
@@ -17543,10 +18431,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17557,7 +18442,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17858,7 +18743,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67959,7 +68844,7 @@
         <v>5619</v>
       </c>
       <c r="D2947" t="s">
-        <v>5085</v>
+        <v>5620</v>
       </c>
       <c r="E2947" t="s">
         <v>8</v>
@@ -67973,7 +68858,7 @@
         <v>5</v>
       </c>
       <c r="C2948" t="s">
-        <v>5620</v>
+        <v>5621</v>
       </c>
       <c r="D2948" t="s">
         <v>4655</v>
@@ -67990,7 +68875,7 @@
         <v>5</v>
       </c>
       <c r="C2949" t="s">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="D2949" t="s">
         <v>782</v>
@@ -68007,7 +68892,7 @@
         <v>5</v>
       </c>
       <c r="C2950" t="s">
-        <v>5622</v>
+        <v>5623</v>
       </c>
       <c r="D2950" t="s">
         <v>4621</v>
@@ -68024,10 +68909,10 @@
         <v>5</v>
       </c>
       <c r="C2951" t="s">
-        <v>5623</v>
+        <v>5624</v>
       </c>
       <c r="D2951" t="s">
-        <v>5624</v>
+        <v>5625</v>
       </c>
       <c r="E2951" t="s">
         <v>8</v>
@@ -68041,10 +68926,10 @@
         <v>5</v>
       </c>
       <c r="C2952" t="s">
-        <v>5625</v>
+        <v>5626</v>
       </c>
       <c r="D2952" t="s">
-        <v>5626</v>
+        <v>5627</v>
       </c>
       <c r="E2952" t="s">
         <v>8</v>
@@ -68058,10 +68943,10 @@
         <v>5</v>
       </c>
       <c r="C2953" t="s">
-        <v>5627</v>
+        <v>5628</v>
       </c>
       <c r="D2953" t="s">
-        <v>5628</v>
+        <v>5629</v>
       </c>
       <c r="E2953" t="s">
         <v>8</v>
@@ -68075,10 +68960,10 @@
         <v>5</v>
       </c>
       <c r="C2954" t="s">
-        <v>5629</v>
+        <v>5630</v>
       </c>
       <c r="D2954" t="s">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="E2954" t="s">
         <v>8</v>
@@ -68092,10 +68977,10 @@
         <v>5</v>
       </c>
       <c r="C2955" t="s">
-        <v>5631</v>
+        <v>5632</v>
       </c>
       <c r="D2955" t="s">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="E2955" t="s">
         <v>8</v>
@@ -68109,10 +68994,10 @@
         <v>5</v>
       </c>
       <c r="C2956" t="s">
-        <v>5633</v>
+        <v>5634</v>
       </c>
       <c r="D2956" t="s">
-        <v>5634</v>
+        <v>5635</v>
       </c>
       <c r="E2956" t="s">
         <v>8</v>
@@ -68126,10 +69011,10 @@
         <v>5</v>
       </c>
       <c r="C2957" t="s">
-        <v>5635</v>
+        <v>5636</v>
       </c>
       <c r="D2957" t="s">
-        <v>5636</v>
+        <v>5637</v>
       </c>
       <c r="E2957" t="s">
         <v>8</v>
@@ -68143,7 +69028,7 @@
         <v>5</v>
       </c>
       <c r="C2958" t="s">
-        <v>5637</v>
+        <v>5638</v>
       </c>
       <c r="D2958" t="s">
         <v>5071</v>
@@ -68160,7 +69045,7 @@
         <v>5</v>
       </c>
       <c r="C2959" t="s">
-        <v>5638</v>
+        <v>5639</v>
       </c>
       <c r="D2959" t="s">
         <v>3591</v>
@@ -68177,10 +69062,10 @@
         <v>5</v>
       </c>
       <c r="C2960" t="s">
-        <v>5639</v>
+        <v>5640</v>
       </c>
       <c r="D2960" t="s">
-        <v>5640</v>
+        <v>5641</v>
       </c>
       <c r="E2960" t="s">
         <v>8</v>
@@ -68194,10 +69079,10 @@
         <v>5</v>
       </c>
       <c r="C2961" t="s">
-        <v>5641</v>
+        <v>5642</v>
       </c>
       <c r="D2961" t="s">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="E2961" t="s">
         <v>8</v>
@@ -68211,10 +69096,10 @@
         <v>5</v>
       </c>
       <c r="C2962" t="s">
-        <v>5643</v>
+        <v>5644</v>
       </c>
       <c r="D2962" t="s">
-        <v>5644</v>
+        <v>5645</v>
       </c>
       <c r="E2962" t="s">
         <v>8</v>
@@ -68228,7 +69113,7 @@
         <v>5</v>
       </c>
       <c r="C2963" t="s">
-        <v>5645</v>
+        <v>5646</v>
       </c>
       <c r="D2963" t="s">
         <v>2003</v>
@@ -68245,7 +69130,7 @@
         <v>5</v>
       </c>
       <c r="C2964" t="s">
-        <v>5646</v>
+        <v>5647</v>
       </c>
       <c r="D2964" t="s">
         <v>1382</v>
@@ -68262,10 +69147,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5647</v>
+        <v>5648</v>
       </c>
       <c r="D2965" t="s">
-        <v>5648</v>
+        <v>5649</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -68279,10 +69164,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5649</v>
+        <v>5650</v>
       </c>
       <c r="D2966" t="s">
-        <v>5650</v>
+        <v>5651</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -68296,10 +69181,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5651</v>
+        <v>5652</v>
       </c>
       <c r="D2967" t="s">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -68313,10 +69198,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5653</v>
+        <v>5654</v>
       </c>
       <c r="D2968" t="s">
-        <v>5654</v>
+        <v>5655</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -68330,10 +69215,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="D2969" t="s">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -68347,10 +69232,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5657</v>
+        <v>5658</v>
       </c>
       <c r="D2970" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -68364,10 +69249,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
       <c r="D2971" t="s">
-        <v>5660</v>
+        <v>5661</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -68381,10 +69266,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="D2972" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -68398,10 +69283,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5663</v>
+        <v>5664</v>
       </c>
       <c r="D2973" t="s">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -68415,10 +69300,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5665</v>
+        <v>5666</v>
       </c>
       <c r="D2974" t="s">
-        <v>5666</v>
+        <v>5667</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -68432,10 +69317,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="D2975" t="s">
-        <v>5668</v>
+        <v>5669</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -68449,10 +69334,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="D2976" t="s">
-        <v>5670</v>
+        <v>5671</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -68466,10 +69351,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="D2977" t="s">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -68483,10 +69368,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5673</v>
+        <v>5674</v>
       </c>
       <c r="D2978" t="s">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -68500,10 +69385,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5675</v>
+        <v>5676</v>
       </c>
       <c r="D2979" t="s">
-        <v>5675</v>
+        <v>5676</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -68517,10 +69402,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5676</v>
+        <v>5677</v>
       </c>
       <c r="D2980" t="s">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -68534,10 +69419,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5678</v>
+        <v>5679</v>
       </c>
       <c r="D2981" t="s">
-        <v>5679</v>
+        <v>5680</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -68551,10 +69436,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D2982" t="s">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -68568,7 +69453,7 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="D2983" t="s">
         <v>3801</v>
@@ -68585,10 +69470,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="D2984" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -68602,10 +69487,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5685</v>
+        <v>5686</v>
       </c>
       <c r="D2985" t="s">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -68619,10 +69504,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5687</v>
+        <v>5688</v>
       </c>
       <c r="D2986" t="s">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -68636,10 +69521,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5689</v>
+        <v>5690</v>
       </c>
       <c r="D2987" t="s">
-        <v>5690</v>
+        <v>5691</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -68653,10 +69538,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="D2988" t="s">
-        <v>5692</v>
+        <v>5693</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -68670,10 +69555,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5693</v>
+        <v>5694</v>
       </c>
       <c r="D2989" t="s">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -68687,10 +69572,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="D2990" t="s">
-        <v>5696</v>
+        <v>5697</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -68704,7 +69589,7 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5697</v>
+        <v>5698</v>
       </c>
       <c r="D2991" t="s">
         <v>3367</v>
@@ -68721,10 +69606,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5698</v>
+        <v>5699</v>
       </c>
       <c r="D2992" t="s">
-        <v>5699</v>
+        <v>5700</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -68738,10 +69623,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5700</v>
+        <v>5701</v>
       </c>
       <c r="D2993" t="s">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -68755,10 +69640,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5702</v>
+        <v>5703</v>
       </c>
       <c r="D2994" t="s">
-        <v>5703</v>
+        <v>5704</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -68772,10 +69657,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5704</v>
+        <v>5705</v>
       </c>
       <c r="D2995" t="s">
-        <v>5705</v>
+        <v>5706</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -68789,10 +69674,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5706</v>
+        <v>5707</v>
       </c>
       <c r="D2996" t="s">
-        <v>5707</v>
+        <v>5708</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -68806,10 +69691,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5708</v>
+        <v>5709</v>
       </c>
       <c r="D2997" t="s">
-        <v>5709</v>
+        <v>5710</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -68823,10 +69708,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5710</v>
+        <v>5711</v>
       </c>
       <c r="D2998" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -68840,10 +69725,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="D2999" t="s">
-        <v>5713</v>
+        <v>5714</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -68857,10 +69742,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5714</v>
+        <v>5715</v>
       </c>
       <c r="D3000" t="s">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -68874,10 +69759,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5716</v>
+        <v>5717</v>
       </c>
       <c r="D3001" t="s">
-        <v>5717</v>
+        <v>5718</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -68891,10 +69776,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5718</v>
+        <v>5719</v>
       </c>
       <c r="D3002" t="s">
-        <v>5719</v>
+        <v>5720</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -68908,10 +69793,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="D3003" t="s">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -68925,10 +69810,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5722</v>
+        <v>5723</v>
       </c>
       <c r="D3004" t="s">
-        <v>5723</v>
+        <v>5724</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -68942,10 +69827,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5724</v>
+        <v>5725</v>
       </c>
       <c r="D3005" t="s">
-        <v>5725</v>
+        <v>5726</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -68959,10 +69844,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
       <c r="D3006" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -68976,10 +69861,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="D3007" t="s">
-        <v>5729</v>
+        <v>5730</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -68993,10 +69878,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5730</v>
+        <v>5731</v>
       </c>
       <c r="D3008" t="s">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -69010,10 +69895,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="D3009" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -69027,10 +69912,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5734</v>
+        <v>5735</v>
       </c>
       <c r="D3010" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -69044,10 +69929,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="D3011" t="s">
-        <v>5737</v>
+        <v>5738</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -69061,10 +69946,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="D3012" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -69078,10 +69963,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D3013" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -69095,10 +69980,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="D3014" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -69112,10 +69997,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5742</v>
+        <v>5743</v>
       </c>
       <c r="D3015" t="s">
-        <v>5743</v>
+        <v>5744</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -69129,10 +70014,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="D3016" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -69146,7 +70031,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="D3017" t="s">
         <v>3290</v>
@@ -69163,7 +70048,7 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="D3018" t="s">
         <v>2869</v>
@@ -69180,10 +70065,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="D3019" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -69197,7 +70082,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="D3020" t="s">
         <v>1555</v>
@@ -69214,10 +70099,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5750</v>
+        <v>5751</v>
       </c>
       <c r="D3021" t="s">
-        <v>5751</v>
+        <v>5752</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -69231,10 +70116,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="D3022" t="s">
-        <v>5753</v>
+        <v>5754</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -69248,10 +70133,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="D3023" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -69265,10 +70150,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="D3024" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -69282,10 +70167,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="D3025" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -69299,10 +70184,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="D3026" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -69316,10 +70201,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="D3027" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -69333,10 +70218,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="D3028" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -69350,10 +70235,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="D3029" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -69367,10 +70252,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="D3030" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -69384,7 +70269,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="D3031" t="s">
         <v>1109</v>
@@ -69401,10 +70286,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="D3032" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -69418,10 +70303,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="D3033" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -69435,10 +70320,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="D3034" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -69452,7 +70337,7 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="D3035" t="s">
         <v>4893</v>
@@ -69469,10 +70354,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="D3036" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -69486,10 +70371,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="D3037" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -69503,10 +70388,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="D3038" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -69520,10 +70405,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="D3039" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -69537,10 +70422,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="D3040" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -69554,10 +70439,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D3041" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -69571,10 +70456,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D3042" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -69588,10 +70473,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="D3043" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -69605,10 +70490,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="D3044" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -69622,10 +70507,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="D3045" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -69639,10 +70524,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3046" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -69656,10 +70541,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3047" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -69673,7 +70558,7 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3048" t="s">
         <v>3098</v>
@@ -69690,7 +70575,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="D3049" t="s">
         <v>3092</v>
@@ -69707,10 +70592,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="D3050" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -69724,10 +70609,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D3051" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -69741,10 +70626,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D3052" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -69758,10 +70643,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D3053" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -69775,10 +70660,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="D3054" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -69792,10 +70677,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="D3055" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -69809,10 +70694,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="D3056" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -69826,10 +70711,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="D3057" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -69843,10 +70728,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="D3058" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -69860,10 +70745,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="D3059" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -69877,10 +70762,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="D3060" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -69894,10 +70779,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="D3061" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -69908,20 +70793,2654 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="C3062" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3062" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6007</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
         <v>5829</v>
       </c>
-      <c r="D3062" t="s">
-        <v>5830</v>
-      </c>
-      <c r="E3062" t="s">
+      <c r="C3157" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6018</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6018</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>3749</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -69933,5 +73452,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/nl_NL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5947">
   <si>
     <t>translation_group</t>
   </si>
@@ -16954,7 +16954,7 @@
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Creëer en bewerk content, verkoop online, beheer bestellingen en klanten.</t>
+    <t>Creëer en bewerk inhoud, verkoop online, beheer bestellingen en klanten.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -16963,16 +16963,19 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
+    <t>Verlaten wagens</t>
+  </si>
+  <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>U gebruikt deze sjabloon.</t>
+    <t>U gebruikt dit sjabloon.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>De wijziging heeft alleen invloed op de huidige pagina.</t>
+    <t>De wijziging is alleen van invloed op de huidige pagina.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -16984,7 +16987,7 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Als u meerdere sjablonen toestaat, kunt u verschillende sjablonen gebruiken wanneer u nieuwe pagina's maakt.</t>
+    <t>Als u meerdere sjablonen toestaat, kunt u verschillende sjablonen gebruiken wanneer u een nieuwe pagina maakt.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -16996,7 +16999,7 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Bezorg berichten met betrekking tot nieuwe registratie, wachtwoordresets en andere systeemfunctionaliteiten.</t>
+    <t>Lever berichten met betrekking tot nieuwe registratie, wachtwoordresets en andere systeemfunctionaliteiten.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17014,7 +17017,7 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Algemene instellingen van de e-mailprovider</t>
+    <t>Algemene e-mailproviderinstellingen</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
@@ -17026,19 +17029,19 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>De algemene e-mailprovider bezorgt alle berichten die betrekking hebben op de website. Inclusief systeemberichten en contactformulierberichten.</t>
+    <t>De algemene e-mailprovider bezorgt alle berichten met betrekking tot de website. Inclusief systeemberichten en contactformulierberichten.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logo van de website</t>
+    <t>Website-logo</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Kies een logo voor uw website.</t>
+    <t>Selecteer een logo voor uw website.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17053,7 +17056,7 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Standaardtaal wijzigen ...</t>
+    <t>Standaardtaal wijzigen..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17065,16 +17068,19 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Installeer de meertalige module</t>
+    <t>Meertalige module installeren</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Gebruikers kunnen zich registreren met tijdelijke e-mails zoals - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Geregistreerde gebruikers kunnen automatisch een automatische e-mail van u ontvangen. Bekijk de instellingen en plaats uw berichten.</t>
+    <t>Geregistreerde gebruikers kunnen automatisch een automatische e-mail van u ontvangen. Bekijk de instellingen en plaats je berichten.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
@@ -17137,7 +17143,7 @@
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Algemene instellingen voor contactformulier</t>
+    <t>Algemene instellingen voor contactformulieren</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17161,7 +17167,7 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Gebruik aangepaste afzenderinstellingen voor de algemene contactformulieren.</t>
+    <t>Gebruik aangepaste afzenderinstellingen voor de globale contactformulieren.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
@@ -17185,7 +17191,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Stuur contactformuliergegevens naar wereldwijde ontvangers wanneer deze worden ingediend</t>
+    <t>Stuur contactformuliergegevens naar wereldwijde ontvangers wanneer ze worden ingediend</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17197,7 +17203,7 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>E-mailadres van de ontvangers gescheiden door coma.</t>
+    <t>E-mailadres van de ontvangers gescheiden met coma.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17227,13 +17233,13 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Verwijder favicon</t>
+    <t>Favicon verwijderen</t>
   </si>
   <si>
     <t>Custom</t>
   </si>
   <si>
-    <t>Op maat</t>
+    <t>Aangepast</t>
   </si>
   <si>
     <t>bxSlider</t>
@@ -17245,7 +17251,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Producten V2</t>
+    <t>ProductenV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17257,16 +17263,25 @@
     <t>White label WHMCS</t>
   </si>
   <si>
+    <t>Whitelabel WHMCS</t>
+  </si>
+  <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Aantal zichtbare getuigenissen</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>Modulesjabloon is gewijzigd</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
-    <t>Inhoudsversies</t>
+    <t>Inhoud versies</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17281,7 +17296,7 @@
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Pijlenlijst</t>
+    <t>Pijlen lijst</t>
   </si>
   <si>
     <t>Checked List</t>
@@ -17293,7 +17308,7 @@
     <t>Background Text</t>
   </si>
   <si>
-    <t>Achtergrondtekst</t>
+    <t>Achtergrond tekst</t>
   </si>
   <si>
     <t>Title with Text</t>
@@ -17317,7 +17332,7 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Twee tekstkolommen met pictogram en titel</t>
+    <t>Twee tekstkolommen met icoon en titel</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17338,7 +17353,7 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Schakel opmerkingen in</t>
+    <t>Opmerkingen inschakelen</t>
   </si>
   <si>
     <t>Captcha settings</t>
@@ -17350,16 +17365,19 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Stel uw captcha-voorkeuren in vanuit </t>
+    <t xml:space="preserve">Stel uw captcha-voorkeuren in vanaf </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Velden van het formulier toevoegen/bewerken met behulp van de aangepaste velden</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Huidige instellingen voor contactformulier</t>
+    <t>Huidige contactformulier instellingen</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17383,7 +17401,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Stuur contactformuliergegevens naar aangepaste ontvangers wanneer deze worden ingediend</t>
+    <t>Stuur contactformuliergegevens naar aangepaste ontvangers wanneer ze worden ingediend</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17395,25 +17413,25 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Standaard gebruiken we de algemene instellingen van het contactformulier.</t>
+    <t>Standaard gebruiken we de globale instellingen van het contactformulier.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>U kunt hier de algemene instellingen van het contactformulier wijzigen.</t>
+    <t>U kunt de algemene instellingen van het contactformulier hier wijzigen.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Automatisch antwoordbericht aan gebruiker</t>
+    <t>Bericht automatisch beantwoorden aan gebruiker</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Schakel automatisch antwoordbericht voor gebruiker in</t>
+    <t>Automatisch reageren op bericht aan gebruiker inschakelen</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
@@ -17431,19 +17449,22 @@
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Met Autoresponders kunt u automatische antwoorden op inkomende e-mail instellen</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Automatische beantwoording van e-mail die naar de gebruiker wordt teruggestuurd</t>
+    <t>Automatisch reagerende e-mail teruggestuurd naar de gebruiker</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Aangepaste afzender automatisch beantwoorden</t>
+    <t>Aangepaste afzender automatisch reageren</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17467,13 +17488,13 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Antwoord automatisch op e-mail</t>
+    <t>Automatisch antwoord op e-mail</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Wanneer de gebruiker het automatische antwoordbericht ontvangt, kan hij reageren om een e-mail te beantwoorden.</t>
+    <t>Wanneer de gebruiker het automatische antwoordbericht ontvangt, kunnen ze reageren om e-mail te beantwoorden.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
@@ -17485,13 +17506,13 @@
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Als u og-afbeeldingen wilt bijvoegen, moet u deze uploaden naar de galerij via 'Media toevoegen'</t>
+    <t>Als u og-afbeeldingen wilt bijvoegen, moet u deze uploaden naar de galerij vanuit 'Media toevoegen'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Je hebt nog geen posts</t>
+    <t>Je hebt nog geen berichten</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
@@ -17503,7 +17524,7 @@
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Maak een bericht</t>
+    <t>Maak een bericht aan</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17517,18 +17538,78 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Productbeschrijvingen schrijven die verkopen
-                                                    Een van de beste dingen die u kunt doen om uw winkel succesvol te maken, is wat tijd investeren in het schrijven van geweldige productbeschrijvingen. U wilt gedetailleerde maar beknopte informatie verstrekken die potentiële klanten zal verleiden om te kopen.
+    <t>Hoe u productbeschrijvingen schrijft die
+                                                    verkopen Een van de beste dingen die u kunt doen om uw winkel succesvol te maken, is wat tijd investeren in het schrijven van geweldige productbeschrijvingen. U wilt gedetailleerde maar beknopte informatie verstrekken die potentiële klanten zal verleiden om te kopen.
                                                     Denk als een consument
-                                                    Denk na over wat u als consument zou willen weten en neem die kenmerken vervolgens op in uw beschrijving. Voor kleding: materialen en pasvorm. Voor voedsel: ingrediënten en hoe het werd bereid. Opsommingstekens zijn je vrienden bij het vermelden van
-                                                   objecten - probeer
+                                                    Denk na over wat u als consument zou willen weten en neem die functies vervolgens op in uw beschrijving. Voor kleding: materialen en pasvorm. Voor voedsel: ingrediënten en hoe het werd bereid. Opsommingstekens zijn je vrienden bij het opsommen van
+                                                   kenmerken - probeer
                                                             elk te beperken tot 5-8 woorden.</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>Admin taal</t>
+    <t>Administratieve taal</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Bericht toevoegen</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Subpagina toevoegen</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Categorie verwijderd</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Inhoud verwijderd</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Zoek categorieën</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Creëer inhoud</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kaart</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Ieder</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Besch</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>Identiteit Asc</t>
   </si>
   <si>
     <t>Limit</t>
@@ -17537,373 +17618,244 @@
     <t>Begrenzing</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Weet u zeker dat u wilt verwijderen?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>U heeft geen producten binnen</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Terug naar</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>categorieën</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Aangepaste velden worden opgeslagen</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bestaande velden</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Kies uit uw bestaande velden hieronder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Voeg nieuwe velden toe</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Voeg een nieuw aangepast veld toe uit de onderstaande lijst</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Uw velden</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lijst met uw toegevoegde aangepaste velden</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Systeem</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>bloggen</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Browser omleiding</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integratie</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Import Export-tool</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Zelfstandige updater</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Preview pakket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Gebruiken</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Stroming</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Nadrukkelijk</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Eerste klas</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klik &amp; Verzamel</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video-achtergrond</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>U kunt de Meertalige module activeren om meerdere talen te gebruiken</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Meertalige modus</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Activeer de meertalige modus om meerdere talen voor uw inhoud te hebben.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Vertalingen worden geïmporteerd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertalingen niet gevonden in database. Wilt u vertalingen importeren? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Uw winkelwagen is leeg.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Code-editor</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titels</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titels 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titels 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titels 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titels 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titels 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titels 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titels 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titels 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>tekstblok</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Tekstblok 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Tekstblok 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Tekstblok 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Tekstblok 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Tekstblok 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Tekstblok 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Tekstblok 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Tekstblok 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Tekstblok 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Tekstblok 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Tekstblok 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Tekstblok 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Tekstblok 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Tekstblok 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Tekstblok 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Eigenschappen 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Functies 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Eigenschappen 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Functies 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>roosters</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - huid-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - huid-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - huid-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - huid-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menu - huid-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>voetteksten</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Voetteksten 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Voetteksten 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Voetteksten 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Voetteksten 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>ander</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>prijzen</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Prijs 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
-    <t>Standaardlay-outs</t>
-  </si>
-  <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Geen inhoud hier</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Aangepaste velden worden opgeslagen</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Bestaande velden</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Kies hieronder uit uw bestaande velden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nieuwe velden toevoegen</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Nieuw aangepast veld toevoegen uit onderstaande lijst</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Uw velden</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lijst met uw toegevoegde aangepaste velden</t>
+    <t>Standaard lay-outs</t>
+  </si>
+  <si>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nieuwe invoer</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">herhaal verticaal </t>
+    <t xml:space="preserve">verticaal herhalen </t>
   </si>
   <si>
     <t>Font Family</t>
   </si>
   <si>
-    <t>Lettertypefamilie</t>
+    <t>Lettertype familie</t>
   </si>
   <si>
     <t>Overlay</t>
   </si>
   <si>
-    <t>overlay</t>
-  </si>
-  <si>
     <t>Blend mode</t>
   </si>
   <si>
-    <t>Overvloeimodus</t>
+    <t>Mengmodus</t>
   </si>
   <si>
     <t>Container</t>
   </si>
   <si>
-    <t>container</t>
-  </si>
-  <si>
     <t>Container type</t>
   </si>
   <si>
-    <t>containertype:</t>
+    <t>Containertype</t>
   </si>
   <si>
     <t>Animations</t>
@@ -17915,499 +17867,7 @@
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>Stijlen opnieuw laden</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Links naar</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Voorbeeldpakket</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Gebruik</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Huidig</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Opnieuw ordenen</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Systeem</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Browser-omleiding</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>integratie</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Zelfstandige updater</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>U hebt een licentiesleutel nodig om dit pakket te installeren</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Dit pakket is premium en je moet een licentiesleutel hebben om het te installeren</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Je hebt een licentiesleutel nodig</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licentie geactiveerd</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Pagina opnieuw laden</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licentie niet geactiveerd</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Systeemupdates</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Controleren op systeemupdates</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Terug naar lijst</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>De categorie moet een naam hebben</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Is categorie verborgen?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Als u dit instelt op JA, wordt deze categorie verborgen voor de website</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Vermelden</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Uw winkelwagen is leeg.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Gevonden resultaten</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Als u het Percentage kiest in het geselecteerde veld, wordt dit automatisch berekend op basis van de Prijs en Aanbiedingsprijs van het product.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>waarden.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Ga naar de kassa</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Weergeven</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>resultaat(en)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Paginatitel - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Paginatitel - linker broodkruimel</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Gebruiksvoorwaarden</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Levering en retouren</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>ongeveer 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>ongeveer 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>ongeveer 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Thuis 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>huis 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>U moet op de knop Sjabloon toepassen klikken om uw sjabloon te wijzigen</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Zoeken op criteria</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Datum vanaf</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Stel de bestellingen in vanaf datum</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Datum naar</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Zet de bestellingen tot op heden</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Bestelbedrag vanaf</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Toon de bestelling met minimumbedrag</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Bestelbedrag tot</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Toon de bestelling met het maximale bedrag</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Zoeken op producten...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Zoeken op producten</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Betalingsstatus</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Gratis zoeken op telefoon, naam, e-mail etc...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Dien deze criteria in</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Filter resetten</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Alles exporteren</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Selecteer sorteren</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Besteldatum</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nieuw &gt; Oud]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Oud &gt; Nieuw]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Hoog &gt; Laag]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Laag &gt; Hoog]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Bestelling voltooid</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>vertalingen van de meertalige module zijn gevonden in uw database.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Waarschuwing! Als u de standaardtaal wijzigt, kunnen vertalingen op uw site worden verbroken.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Weet je zeker dat je wilt doorgaan?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Waarschuwing! De veranderende standaardtaal zal uw site misschien kapot maken.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Verzendgegevens</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Verzendtype:</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>de bestelling is nog niet voltooid</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>de bestelling is voltooid</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Gemaakt bij</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snelle kijk </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Taalwaarden vervangen</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Vertalingen worden geïmporteerd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertalingen niet gevonden in database. Wilt u vertalingen importeren? </t>
+    <t>Stijlen herladen</t>
   </si>
 </sst>
 </file>
@@ -18743,7 +18203,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69133,7 +68593,7 @@
         <v>5647</v>
       </c>
       <c r="D2964" t="s">
-        <v>1382</v>
+        <v>5648</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69147,10 +68607,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5648</v>
+        <v>5649</v>
       </c>
       <c r="D2965" t="s">
-        <v>5649</v>
+        <v>5650</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69164,10 +68624,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5650</v>
+        <v>5651</v>
       </c>
       <c r="D2966" t="s">
-        <v>5651</v>
+        <v>5652</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69181,10 +68641,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="D2967" t="s">
-        <v>5653</v>
+        <v>5654</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69198,10 +68658,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5654</v>
+        <v>5655</v>
       </c>
       <c r="D2968" t="s">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69215,10 +68675,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="D2969" t="s">
-        <v>5657</v>
+        <v>5658</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69232,10 +68692,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="D2970" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69249,10 +68709,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5660</v>
+        <v>5661</v>
       </c>
       <c r="D2971" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69266,10 +68726,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
       <c r="D2972" t="s">
-        <v>5663</v>
+        <v>5664</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69283,10 +68743,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="D2973" t="s">
-        <v>5665</v>
+        <v>5666</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69300,10 +68760,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5666</v>
+        <v>5667</v>
       </c>
       <c r="D2974" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69317,10 +68777,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5668</v>
+        <v>5669</v>
       </c>
       <c r="D2975" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69334,10 +68794,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5670</v>
+        <v>5671</v>
       </c>
       <c r="D2976" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69351,10 +68811,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="D2977" t="s">
-        <v>5673</v>
+        <v>5674</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69368,10 +68828,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="D2978" t="s">
-        <v>5675</v>
+        <v>5676</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69385,10 +68845,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5676</v>
+        <v>5677</v>
       </c>
       <c r="D2979" t="s">
-        <v>5676</v>
+        <v>5677</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69402,10 +68862,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="D2980" t="s">
-        <v>5678</v>
+        <v>5679</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69419,10 +68879,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5679</v>
+        <v>5680</v>
       </c>
       <c r="D2981" t="s">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69436,10 +68896,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="D2982" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69453,10 +68913,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="D2983" t="s">
-        <v>3801</v>
+        <v>5685</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69470,10 +68930,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5684</v>
+        <v>5686</v>
       </c>
       <c r="D2984" t="s">
-        <v>5685</v>
+        <v>5687</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69487,10 +68947,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5686</v>
+        <v>5688</v>
       </c>
       <c r="D2985" t="s">
-        <v>5687</v>
+        <v>5689</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69504,10 +68964,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5688</v>
+        <v>5690</v>
       </c>
       <c r="D2986" t="s">
-        <v>5689</v>
+        <v>5691</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69521,10 +68981,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5690</v>
+        <v>5692</v>
       </c>
       <c r="D2987" t="s">
-        <v>5691</v>
+        <v>5693</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69538,10 +68998,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5692</v>
+        <v>5694</v>
       </c>
       <c r="D2988" t="s">
-        <v>5693</v>
+        <v>5695</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69555,10 +69015,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5694</v>
+        <v>5696</v>
       </c>
       <c r="D2989" t="s">
-        <v>5695</v>
+        <v>5697</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69572,10 +69032,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5696</v>
+        <v>5698</v>
       </c>
       <c r="D2990" t="s">
-        <v>5697</v>
+        <v>5699</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69589,7 +69049,7 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5698</v>
+        <v>5700</v>
       </c>
       <c r="D2991" t="s">
         <v>3367</v>
@@ -69606,10 +69066,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5699</v>
+        <v>5701</v>
       </c>
       <c r="D2992" t="s">
-        <v>5700</v>
+        <v>5702</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69623,10 +69083,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5701</v>
+        <v>5703</v>
       </c>
       <c r="D2993" t="s">
-        <v>5702</v>
+        <v>5704</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69640,10 +69100,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5703</v>
+        <v>5705</v>
       </c>
       <c r="D2994" t="s">
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69657,10 +69117,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5705</v>
+        <v>5707</v>
       </c>
       <c r="D2995" t="s">
-        <v>5706</v>
+        <v>5708</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69674,10 +69134,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5707</v>
+        <v>5709</v>
       </c>
       <c r="D2996" t="s">
-        <v>5708</v>
+        <v>5710</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69691,10 +69151,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5709</v>
+        <v>5711</v>
       </c>
       <c r="D2997" t="s">
-        <v>5710</v>
+        <v>5712</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69708,10 +69168,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5711</v>
+        <v>5713</v>
       </c>
       <c r="D2998" t="s">
-        <v>5712</v>
+        <v>5714</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69725,10 +69185,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5713</v>
+        <v>5715</v>
       </c>
       <c r="D2999" t="s">
-        <v>5714</v>
+        <v>5716</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69742,10 +69202,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5715</v>
+        <v>5717</v>
       </c>
       <c r="D3000" t="s">
-        <v>5716</v>
+        <v>5718</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69759,10 +69219,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5717</v>
+        <v>5719</v>
       </c>
       <c r="D3001" t="s">
-        <v>5718</v>
+        <v>5720</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69776,10 +69236,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5719</v>
+        <v>5721</v>
       </c>
       <c r="D3002" t="s">
-        <v>5720</v>
+        <v>5722</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69793,10 +69253,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5721</v>
+        <v>5723</v>
       </c>
       <c r="D3003" t="s">
-        <v>5722</v>
+        <v>5724</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69810,10 +69270,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5723</v>
+        <v>5725</v>
       </c>
       <c r="D3004" t="s">
-        <v>5724</v>
+        <v>5726</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69827,10 +69287,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5725</v>
+        <v>5727</v>
       </c>
       <c r="D3005" t="s">
-        <v>5726</v>
+        <v>5728</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69844,10 +69304,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5727</v>
+        <v>5729</v>
       </c>
       <c r="D3006" t="s">
-        <v>5728</v>
+        <v>5730</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69861,10 +69321,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5729</v>
+        <v>5731</v>
       </c>
       <c r="D3007" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69878,10 +69338,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5731</v>
+        <v>5733</v>
       </c>
       <c r="D3008" t="s">
-        <v>5732</v>
+        <v>5734</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -69895,10 +69355,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5733</v>
+        <v>5735</v>
       </c>
       <c r="D3009" t="s">
-        <v>5734</v>
+        <v>5736</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -69912,10 +69372,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5735</v>
+        <v>5737</v>
       </c>
       <c r="D3010" t="s">
-        <v>5736</v>
+        <v>5738</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -69929,10 +69389,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="D3011" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -69946,10 +69406,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="D3012" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -69963,10 +69423,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
       <c r="D3013" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -69980,10 +69440,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="D3014" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -69997,10 +69457,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5743</v>
+        <v>5745</v>
       </c>
       <c r="D3015" t="s">
-        <v>5744</v>
+        <v>5746</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70014,10 +69474,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5745</v>
+        <v>5747</v>
       </c>
       <c r="D3016" t="s">
-        <v>5745</v>
+        <v>5748</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70031,10 +69491,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5746</v>
+        <v>5749</v>
       </c>
       <c r="D3017" t="s">
-        <v>3290</v>
+        <v>5750</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70048,10 +69508,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5747</v>
+        <v>5751</v>
       </c>
       <c r="D3018" t="s">
-        <v>2869</v>
+        <v>5752</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70065,10 +69525,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5748</v>
+        <v>5753</v>
       </c>
       <c r="D3019" t="s">
-        <v>5749</v>
+        <v>5754</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70082,7 +69542,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5750</v>
+        <v>5755</v>
       </c>
       <c r="D3020" t="s">
         <v>1555</v>
@@ -70099,10 +69559,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5751</v>
+        <v>5756</v>
       </c>
       <c r="D3021" t="s">
-        <v>5752</v>
+        <v>5757</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70116,10 +69576,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5753</v>
+        <v>5758</v>
       </c>
       <c r="D3022" t="s">
-        <v>5754</v>
+        <v>5759</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70133,10 +69593,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5755</v>
+        <v>5760</v>
       </c>
       <c r="D3023" t="s">
-        <v>5756</v>
+        <v>5761</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70150,10 +69610,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5757</v>
+        <v>5762</v>
       </c>
       <c r="D3024" t="s">
-        <v>5758</v>
+        <v>5763</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70167,10 +69627,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5759</v>
+        <v>5764</v>
       </c>
       <c r="D3025" t="s">
-        <v>5760</v>
+        <v>5765</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70184,10 +69644,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5761</v>
+        <v>5766</v>
       </c>
       <c r="D3026" t="s">
-        <v>5762</v>
+        <v>5767</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70201,10 +69661,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5763</v>
+        <v>5768</v>
       </c>
       <c r="D3027" t="s">
-        <v>5764</v>
+        <v>5769</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70218,10 +69678,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5765</v>
+        <v>5770</v>
       </c>
       <c r="D3028" t="s">
-        <v>5766</v>
+        <v>5771</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70235,10 +69695,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5767</v>
+        <v>5772</v>
       </c>
       <c r="D3029" t="s">
-        <v>5768</v>
+        <v>5773</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70252,10 +69712,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5769</v>
+        <v>5774</v>
       </c>
       <c r="D3030" t="s">
-        <v>5770</v>
+        <v>5775</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70269,7 +69729,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5771</v>
+        <v>5776</v>
       </c>
       <c r="D3031" t="s">
         <v>1109</v>
@@ -70286,10 +69746,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5772</v>
+        <v>5777</v>
       </c>
       <c r="D3032" t="s">
-        <v>5773</v>
+        <v>5778</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70303,10 +69763,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5774</v>
+        <v>5779</v>
       </c>
       <c r="D3033" t="s">
-        <v>5775</v>
+        <v>5780</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70320,10 +69780,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5776</v>
+        <v>5781</v>
       </c>
       <c r="D3034" t="s">
-        <v>5777</v>
+        <v>5782</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70337,10 +69797,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5778</v>
+        <v>5783</v>
       </c>
       <c r="D3035" t="s">
-        <v>4893</v>
+        <v>5784</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70354,10 +69814,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5779</v>
+        <v>5785</v>
       </c>
       <c r="D3036" t="s">
-        <v>5780</v>
+        <v>5786</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70371,10 +69831,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5781</v>
+        <v>5787</v>
       </c>
       <c r="D3037" t="s">
-        <v>5782</v>
+        <v>5788</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70388,10 +69848,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5783</v>
+        <v>5789</v>
       </c>
       <c r="D3038" t="s">
-        <v>5784</v>
+        <v>5790</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70405,10 +69865,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5785</v>
+        <v>5791</v>
       </c>
       <c r="D3039" t="s">
-        <v>5786</v>
+        <v>5792</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70422,10 +69882,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5787</v>
+        <v>5793</v>
       </c>
       <c r="D3040" t="s">
-        <v>5788</v>
+        <v>5794</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70439,10 +69899,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5789</v>
+        <v>5795</v>
       </c>
       <c r="D3041" t="s">
-        <v>5790</v>
+        <v>5796</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70456,10 +69916,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5791</v>
+        <v>5797</v>
       </c>
       <c r="D3042" t="s">
-        <v>5792</v>
+        <v>5798</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70473,10 +69933,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5793</v>
+        <v>5799</v>
       </c>
       <c r="D3043" t="s">
-        <v>5794</v>
+        <v>5800</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70490,10 +69950,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5795</v>
+        <v>5801</v>
       </c>
       <c r="D3044" t="s">
-        <v>5796</v>
+        <v>5802</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70507,10 +69967,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5797</v>
+        <v>5803</v>
       </c>
       <c r="D3045" t="s">
-        <v>5798</v>
+        <v>5804</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70524,10 +69984,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5799</v>
+        <v>5805</v>
       </c>
       <c r="D3046" t="s">
-        <v>5800</v>
+        <v>5806</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70541,10 +70001,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5801</v>
+        <v>5807</v>
       </c>
       <c r="D3047" t="s">
-        <v>5802</v>
+        <v>5808</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70558,10 +70018,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5803</v>
+        <v>5809</v>
       </c>
       <c r="D3048" t="s">
-        <v>3098</v>
+        <v>5810</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70575,10 +70035,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5804</v>
+        <v>5811</v>
       </c>
       <c r="D3049" t="s">
-        <v>3092</v>
+        <v>802</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70592,10 +70052,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5805</v>
+        <v>5812</v>
       </c>
       <c r="D3050" t="s">
-        <v>5806</v>
+        <v>5813</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70609,10 +70069,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5807</v>
+        <v>5814</v>
       </c>
       <c r="D3051" t="s">
-        <v>5808</v>
+        <v>5815</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70626,10 +70086,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5809</v>
+        <v>5816</v>
       </c>
       <c r="D3052" t="s">
-        <v>5810</v>
+        <v>5817</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70643,10 +70103,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5811</v>
+        <v>5818</v>
       </c>
       <c r="D3053" t="s">
-        <v>5812</v>
+        <v>5819</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70660,10 +70120,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5813</v>
+        <v>5820</v>
       </c>
       <c r="D3054" t="s">
-        <v>5814</v>
+        <v>5821</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70677,10 +70137,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5815</v>
+        <v>5822</v>
       </c>
       <c r="D3055" t="s">
-        <v>5816</v>
+        <v>5823</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70694,10 +70154,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5817</v>
+        <v>5824</v>
       </c>
       <c r="D3056" t="s">
-        <v>5818</v>
+        <v>5825</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70711,10 +70171,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5819</v>
+        <v>5826</v>
       </c>
       <c r="D3057" t="s">
-        <v>5820</v>
+        <v>5827</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70728,10 +70188,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5821</v>
+        <v>5828</v>
       </c>
       <c r="D3058" t="s">
-        <v>5822</v>
+        <v>5829</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70745,10 +70205,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5823</v>
+        <v>5830</v>
       </c>
       <c r="D3059" t="s">
-        <v>5824</v>
+        <v>5831</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70762,10 +70222,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5825</v>
+        <v>5832</v>
       </c>
       <c r="D3060" t="s">
-        <v>5826</v>
+        <v>5833</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70779,10 +70239,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5827</v>
+        <v>5834</v>
       </c>
       <c r="D3061" t="s">
-        <v>5828</v>
+        <v>5835</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70793,13 +70253,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5829</v>
+        <v>5836</v>
       </c>
       <c r="C3062" t="s">
-        <v>5830</v>
+        <v>5837</v>
       </c>
       <c r="D3062" t="s">
-        <v>5831</v>
+        <v>5838</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70813,10 +70273,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5832</v>
+        <v>5839</v>
       </c>
       <c r="D3063" t="s">
-        <v>5833</v>
+        <v>5840</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70830,10 +70290,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5834</v>
+        <v>5841</v>
       </c>
       <c r="D3064" t="s">
-        <v>5835</v>
+        <v>5842</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70847,10 +70307,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5836</v>
+        <v>5843</v>
       </c>
       <c r="D3065" t="s">
-        <v>5837</v>
+        <v>5844</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70864,10 +70324,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5838</v>
+        <v>5845</v>
       </c>
       <c r="D3066" t="s">
-        <v>5838</v>
+        <v>5846</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70881,10 +70341,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5839</v>
+        <v>5847</v>
       </c>
       <c r="D3067" t="s">
-        <v>5840</v>
+        <v>5848</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70898,10 +70358,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5841</v>
+        <v>5849</v>
       </c>
       <c r="D3068" t="s">
-        <v>5842</v>
+        <v>5850</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70915,10 +70375,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5843</v>
+        <v>5851</v>
       </c>
       <c r="D3069" t="s">
-        <v>5844</v>
+        <v>5852</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70932,10 +70392,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5845</v>
+        <v>5853</v>
       </c>
       <c r="D3070" t="s">
-        <v>5846</v>
+        <v>5854</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70949,10 +70409,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5847</v>
+        <v>5855</v>
       </c>
       <c r="D3071" t="s">
-        <v>5848</v>
+        <v>5856</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -70966,10 +70426,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5849</v>
+        <v>5857</v>
       </c>
       <c r="D3072" t="s">
-        <v>5850</v>
+        <v>5858</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -70983,10 +70443,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5851</v>
+        <v>5859</v>
       </c>
       <c r="D3073" t="s">
-        <v>5852</v>
+        <v>5860</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71000,10 +70460,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5853</v>
+        <v>5861</v>
       </c>
       <c r="D3074" t="s">
-        <v>5854</v>
+        <v>5862</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71017,10 +70477,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5855</v>
+        <v>5863</v>
       </c>
       <c r="D3075" t="s">
-        <v>5856</v>
+        <v>5864</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71034,10 +70494,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5857</v>
+        <v>5865</v>
       </c>
       <c r="D3076" t="s">
-        <v>5858</v>
+        <v>5866</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71051,10 +70511,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5859</v>
+        <v>5867</v>
       </c>
       <c r="D3077" t="s">
-        <v>5860</v>
+        <v>5868</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71068,10 +70528,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5861</v>
+        <v>5869</v>
       </c>
       <c r="D3078" t="s">
-        <v>5862</v>
+        <v>5870</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71085,10 +70545,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5863</v>
+        <v>5871</v>
       </c>
       <c r="D3079" t="s">
-        <v>5864</v>
+        <v>5872</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71102,10 +70562,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5865</v>
+        <v>5873</v>
       </c>
       <c r="D3080" t="s">
-        <v>5866</v>
+        <v>5874</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71119,10 +70579,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5867</v>
+        <v>5875</v>
       </c>
       <c r="D3081" t="s">
-        <v>5868</v>
+        <v>5876</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71136,10 +70596,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5869</v>
+        <v>5877</v>
       </c>
       <c r="D3082" t="s">
-        <v>5870</v>
+        <v>5878</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71153,10 +70613,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5871</v>
+        <v>5879</v>
       </c>
       <c r="D3083" t="s">
-        <v>5872</v>
+        <v>5880</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71170,10 +70630,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5873</v>
+        <v>5881</v>
       </c>
       <c r="D3084" t="s">
-        <v>5874</v>
+        <v>5882</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71187,10 +70647,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5875</v>
+        <v>5883</v>
       </c>
       <c r="D3085" t="s">
-        <v>5876</v>
+        <v>5884</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71204,10 +70664,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5877</v>
+        <v>5885</v>
       </c>
       <c r="D3086" t="s">
-        <v>5878</v>
+        <v>3609</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71221,10 +70681,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5879</v>
+        <v>5886</v>
       </c>
       <c r="D3087" t="s">
-        <v>5880</v>
+        <v>5887</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71238,10 +70698,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5881</v>
+        <v>5888</v>
       </c>
       <c r="D3088" t="s">
-        <v>5882</v>
+        <v>5889</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71255,10 +70715,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5883</v>
+        <v>5890</v>
       </c>
       <c r="D3089" t="s">
-        <v>5884</v>
+        <v>5891</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71272,10 +70732,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5885</v>
+        <v>5892</v>
       </c>
       <c r="D3090" t="s">
-        <v>5886</v>
+        <v>5893</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71289,10 +70749,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5887</v>
+        <v>5894</v>
       </c>
       <c r="D3091" t="s">
-        <v>5888</v>
+        <v>5895</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71306,10 +70766,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5889</v>
+        <v>5896</v>
       </c>
       <c r="D3092" t="s">
-        <v>1897</v>
+        <v>5897</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71323,10 +70783,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5890</v>
+        <v>5898</v>
       </c>
       <c r="D3093" t="s">
-        <v>5891</v>
+        <v>5899</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71340,10 +70800,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5892</v>
+        <v>5900</v>
       </c>
       <c r="D3094" t="s">
-        <v>5893</v>
+        <v>5901</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71357,10 +70817,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5894</v>
+        <v>5902</v>
       </c>
       <c r="D3095" t="s">
-        <v>5895</v>
+        <v>5903</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71374,10 +70834,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5896</v>
+        <v>5904</v>
       </c>
       <c r="D3096" t="s">
-        <v>5897</v>
+        <v>5905</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71391,10 +70851,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5898</v>
+        <v>5906</v>
       </c>
       <c r="D3097" t="s">
-        <v>5899</v>
+        <v>5907</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71408,10 +70868,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5900</v>
+        <v>5908</v>
       </c>
       <c r="D3098" t="s">
-        <v>5900</v>
+        <v>5909</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71425,10 +70885,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5901</v>
+        <v>5910</v>
       </c>
       <c r="D3099" t="s">
-        <v>5902</v>
+        <v>5911</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71442,10 +70902,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5903</v>
+        <v>5912</v>
       </c>
       <c r="D3100" t="s">
-        <v>5904</v>
+        <v>5913</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71459,10 +70919,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5905</v>
+        <v>5914</v>
       </c>
       <c r="D3101" t="s">
-        <v>5906</v>
+        <v>1498</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71476,10 +70936,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5907</v>
+        <v>5915</v>
       </c>
       <c r="D3102" t="s">
-        <v>5908</v>
+        <v>5916</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71493,10 +70953,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5909</v>
+        <v>5917</v>
       </c>
       <c r="D3103" t="s">
-        <v>5910</v>
+        <v>5918</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71510,10 +70970,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5911</v>
+        <v>5919</v>
       </c>
       <c r="D3104" t="s">
-        <v>5912</v>
+        <v>5920</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71527,10 +70987,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5913</v>
+        <v>5921</v>
       </c>
       <c r="D3105" t="s">
-        <v>5914</v>
+        <v>5922</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71544,10 +71004,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5915</v>
+        <v>5923</v>
       </c>
       <c r="D3106" t="s">
-        <v>5916</v>
+        <v>5924</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71561,10 +71021,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5917</v>
+        <v>5925</v>
       </c>
       <c r="D3107" t="s">
-        <v>5918</v>
+        <v>5926</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71578,10 +71038,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5919</v>
+        <v>5927</v>
       </c>
       <c r="D3108" t="s">
-        <v>5920</v>
+        <v>5928</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71594,11 +71054,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5921</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5922</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71611,11 +71071,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5930</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71629,10 +71089,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5923</v>
+        <v>5931</v>
       </c>
       <c r="D3111" t="s">
-        <v>5923</v>
+        <v>5932</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71646,10 +71106,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5924</v>
+        <v>5933</v>
       </c>
       <c r="D3112" t="s">
-        <v>5924</v>
+        <v>5934</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71663,10 +71123,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5925</v>
+        <v>5935</v>
       </c>
       <c r="D3113" t="s">
-        <v>5926</v>
+        <v>5936</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71680,10 +71140,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5927</v>
+        <v>5937</v>
       </c>
       <c r="D3114" t="s">
-        <v>5928</v>
+        <v>5937</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71697,10 +71157,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5929</v>
+        <v>5938</v>
       </c>
       <c r="D3115" t="s">
-        <v>5930</v>
+        <v>5939</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71714,10 +71174,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5931</v>
+        <v>5940</v>
       </c>
       <c r="D3116" t="s">
-        <v>5932</v>
+        <v>5940</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71731,10 +71191,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5933</v>
+        <v>5941</v>
       </c>
       <c r="D3117" t="s">
-        <v>5934</v>
+        <v>5942</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71748,10 +71208,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5935</v>
+        <v>5943</v>
       </c>
       <c r="D3118" t="s">
-        <v>5936</v>
+        <v>5944</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71765,1678 +71225,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5937</v>
+        <v>5945</v>
       </c>
       <c r="D3119" t="s">
-        <v>5938</v>
+        <v>5946</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5939</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5940</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5941</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5942</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5943</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5944</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5945</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5946</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5947</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5948</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5949</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5950</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5951</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5952</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5953</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5954</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5955</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5956</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5957</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5958</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5959</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5960</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5962</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5964</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5966</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5967</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5967</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5968</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5969</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5970</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5971</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5972</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5973</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5974</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5975</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5976</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5977</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5978</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5979</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2698</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6007</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5829</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6017</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6018</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6018</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3749</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2215</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
